--- a/georgia/transformations/templates/calibrated/georgia/model_input_variables_georgia_ip_calibrated.xlsx
+++ b/georgia/transformations/templates/calibrated/georgia/model_input_variables_georgia_ip_calibrated.xlsx
@@ -24157,76 +24157,76 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W2">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X2">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y2">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA2">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD2">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE2">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF2">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG2">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH2">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ2">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK2">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL2">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM2">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO2">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP2">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR2">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -24282,76 +24282,76 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W3">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X3">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y3">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA3">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD3">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE3">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF3">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG3">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH3">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ3">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK3">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL3">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM3">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN3">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO3">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP3">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR3">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS3">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -24407,76 +24407,76 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W4">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X4">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y4">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA4">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD4">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE4">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF4">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG4">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH4">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ4">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK4">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL4">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM4">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO4">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP4">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ4">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR4">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS4">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -24532,76 +24532,76 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W5">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X5">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y5">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA5">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD5">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE5">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF5">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG5">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH5">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ5">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK5">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL5">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM5">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN5">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO5">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP5">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR5">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS5">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -24657,76 +24657,76 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W6">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X6">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y6">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA6">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD6">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE6">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF6">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG6">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH6">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ6">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK6">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL6">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM6">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO6">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP6">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR6">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS6">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -24782,76 +24782,76 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W7">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X7">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y7">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA7">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD7">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE7">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF7">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG7">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH7">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ7">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK7">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL7">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM7">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN7">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO7">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP7">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR7">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS7">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -24907,76 +24907,76 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W8">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X8">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y8">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA8">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD8">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE8">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF8">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG8">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH8">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ8">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK8">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL8">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM8">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO8">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP8">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR8">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS8">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -25032,76 +25032,76 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W9">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X9">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y9">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA9">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB9">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD9">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE9">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF9">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG9">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH9">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ9">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK9">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL9">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM9">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO9">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP9">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR9">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -25157,76 +25157,76 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W10">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X10">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y10">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA10">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD10">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE10">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF10">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG10">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH10">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ10">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK10">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL10">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM10">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN10">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO10">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP10">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ10">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR10">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -25282,76 +25282,76 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W11">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X11">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y11">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA11">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD11">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE11">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF11">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG11">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH11">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ11">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK11">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL11">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM11">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO11">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP11">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR11">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -25407,76 +25407,76 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W12">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X12">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y12">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z12">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA12">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC12">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD12">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE12">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF12">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG12">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH12">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI12">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ12">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK12">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL12">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM12">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN12">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO12">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP12">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ12">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR12">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS12">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -25532,76 +25532,76 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W13">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X13">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y13">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA13">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD13">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE13">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF13">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG13">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH13">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI13">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ13">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK13">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL13">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM13">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN13">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO13">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP13">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ13">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR13">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS13">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -25657,76 +25657,76 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W14">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X14">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y14">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z14">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA14">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD14">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE14">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF14">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG14">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH14">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI14">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ14">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK14">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL14">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM14">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN14">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO14">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP14">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ14">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR14">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS14">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -25782,76 +25782,76 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W15">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X15">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y15">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z15">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA15">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD15">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE15">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF15">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG15">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH15">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI15">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ15">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK15">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL15">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM15">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN15">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO15">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP15">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR15">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS15">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -25907,76 +25907,76 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W16">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X16">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y16">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA16">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD16">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE16">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF16">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG16">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH16">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI16">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ16">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK16">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL16">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM16">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN16">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO16">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP16">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ16">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR16">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS16">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -26032,76 +26032,76 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W17">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X17">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y17">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z17">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA17">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC17">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD17">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE17">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF17">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG17">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH17">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI17">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ17">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK17">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL17">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM17">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN17">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO17">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP17">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ17">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR17">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS17">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -26157,76 +26157,76 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W18">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X18">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y18">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA18">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC18">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD18">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE18">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF18">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG18">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH18">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI18">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ18">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK18">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL18">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM18">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN18">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO18">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP18">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ18">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR18">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS18">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -26282,76 +26282,76 @@
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W19">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X19">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y19">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA19">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC19">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD19">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE19">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF19">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG19">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH19">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI19">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ19">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK19">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL19">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM19">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN19">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO19">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP19">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ19">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR19">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS19">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -26407,76 +26407,76 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W20">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X20">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y20">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA20">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC20">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD20">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE20">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF20">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG20">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH20">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI20">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ20">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK20">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL20">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM20">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN20">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO20">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP20">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ20">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR20">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -26532,76 +26532,76 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.9962500000000001</v>
+        <v>0.9875</v>
       </c>
       <c r="W21">
-        <v>0.9924999999999999</v>
+        <v>0.975</v>
       </c>
       <c r="X21">
-        <v>0.98875</v>
+        <v>0.9625</v>
       </c>
       <c r="Y21">
-        <v>0.9850000000000001</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.98125</v>
+        <v>0.9375</v>
       </c>
       <c r="AA21">
-        <v>0.9775</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>0.9737499999999999</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC21">
-        <v>0.9700000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD21">
-        <v>0.9662500000000001</v>
+        <v>0.8875</v>
       </c>
       <c r="AE21">
-        <v>0.9624999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AF21">
-        <v>0.95875</v>
+        <v>0.8625</v>
       </c>
       <c r="AG21">
-        <v>0.9550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH21">
-        <v>0.95125</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI21">
-        <v>0.9475</v>
+        <v>0.825</v>
       </c>
       <c r="AJ21">
-        <v>0.94375</v>
+        <v>0.8125</v>
       </c>
       <c r="AK21">
-        <v>0.9400000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AL21">
-        <v>0.93625</v>
+        <v>0.7875</v>
       </c>
       <c r="AM21">
-        <v>0.9325</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN21">
-        <v>0.9287500000000001</v>
+        <v>0.7625</v>
       </c>
       <c r="AO21">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AP21">
-        <v>0.92125</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ21">
-        <v>0.9175</v>
+        <v>0.725</v>
       </c>
       <c r="AR21">
-        <v>0.9137500000000001</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS21">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -26657,76 +26657,76 @@
         <v>0.365103474841442</v>
       </c>
       <c r="V22">
-        <v>0.3500429565042326</v>
+        <v>0.351412094534888</v>
       </c>
       <c r="W22">
-        <v>0.334982438167023</v>
+        <v>0.3377207142283338</v>
       </c>
       <c r="X22">
-        <v>0.3199219198298136</v>
+        <v>0.3240293339217798</v>
       </c>
       <c r="Y22">
-        <v>0.3048614014926041</v>
+        <v>0.3103379536152257</v>
       </c>
       <c r="Z22">
-        <v>0.2898008831553946</v>
+        <v>0.2966465733086717</v>
       </c>
       <c r="AA22">
-        <v>0.2747403648181851</v>
+        <v>0.2829551930021175</v>
       </c>
       <c r="AB22">
-        <v>0.2596798464809756</v>
+        <v>0.2692638126955635</v>
       </c>
       <c r="AC22">
-        <v>0.2446193281437662</v>
+        <v>0.2555724323890095</v>
       </c>
       <c r="AD22">
-        <v>0.2295588098065567</v>
+        <v>0.2418810520824554</v>
       </c>
       <c r="AE22">
+        <v>0.2281896717759012</v>
+      </c>
+      <c r="AF22">
         <v>0.2144982914693472</v>
       </c>
-      <c r="AF22">
-        <v>0.1994377731321377</v>
-      </c>
       <c r="AG22">
-        <v>0.1843772547949282</v>
+        <v>0.2008069111627931</v>
       </c>
       <c r="AH22">
-        <v>0.1693167364577187</v>
+        <v>0.1871155308562391</v>
       </c>
       <c r="AI22">
-        <v>0.1542562181205092</v>
+        <v>0.173424150549685</v>
       </c>
       <c r="AJ22">
-        <v>0.1391956997832998</v>
+        <v>0.1597327702431309</v>
       </c>
       <c r="AK22">
-        <v>0.1241351814460903</v>
+        <v>0.1460413899365768</v>
       </c>
       <c r="AL22">
-        <v>0.1090746631088808</v>
+        <v>0.1323500096300227</v>
       </c>
       <c r="AM22">
-        <v>0.09401414477167132</v>
+        <v>0.1186586293234687</v>
       </c>
       <c r="AN22">
-        <v>0.07895362643446185</v>
+        <v>0.1049672490169146</v>
       </c>
       <c r="AO22">
-        <v>0.06389310809725234</v>
+        <v>0.09127586871036049</v>
       </c>
       <c r="AP22">
-        <v>0.04883258976004287</v>
+        <v>0.07758448840380643</v>
       </c>
       <c r="AQ22">
-        <v>0.0337720714228334</v>
+        <v>0.06389310809725236</v>
       </c>
       <c r="AR22">
-        <v>0.01871155308562389</v>
+        <v>0.05020172779069827</v>
       </c>
       <c r="AS22">
-        <v>0.003651034748414421</v>
+        <v>0.0365103474841442</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -26782,76 +26782,76 @@
         <v>1.11224154792243</v>
       </c>
       <c r="V23">
-        <v>1.06636158407063</v>
+        <v>1.070532489875339</v>
       </c>
       <c r="W23">
-        <v>1.02048162021883</v>
+        <v>1.028823431828248</v>
       </c>
       <c r="X23">
-        <v>0.9746016563670292</v>
+        <v>0.9871143737811565</v>
       </c>
       <c r="Y23">
-        <v>0.928721692515229</v>
+        <v>0.9454053157340654</v>
       </c>
       <c r="Z23">
-        <v>0.8828417286634287</v>
+        <v>0.9036962576869743</v>
       </c>
       <c r="AA23">
-        <v>0.8369617648116284</v>
+        <v>0.8619871996398831</v>
       </c>
       <c r="AB23">
-        <v>0.7910818009598283</v>
+        <v>0.820278141592792</v>
       </c>
       <c r="AC23">
-        <v>0.7452018371080281</v>
+        <v>0.7785690835457011</v>
       </c>
       <c r="AD23">
-        <v>0.6993218732562279</v>
+        <v>0.7368600254986098</v>
       </c>
       <c r="AE23">
-        <v>0.6534419094044275</v>
+        <v>0.6951509674515186</v>
       </c>
       <c r="AF23">
-        <v>0.6075619455526274</v>
+        <v>0.6534419094044277</v>
       </c>
       <c r="AG23">
-        <v>0.5616819817008271</v>
+        <v>0.6117328513573365</v>
       </c>
       <c r="AH23">
-        <v>0.5158020178490269</v>
+        <v>0.5700237933102453</v>
       </c>
       <c r="AI23">
-        <v>0.4699220539972266</v>
+        <v>0.5283147352631542</v>
       </c>
       <c r="AJ23">
-        <v>0.4240420901454264</v>
+        <v>0.4866056772160631</v>
       </c>
       <c r="AK23">
-        <v>0.3781621262936262</v>
+        <v>0.4448966191689721</v>
       </c>
       <c r="AL23">
-        <v>0.3322821624418259</v>
+        <v>0.4031875611218808</v>
       </c>
       <c r="AM23">
-        <v>0.2864021985900257</v>
+        <v>0.3614785030747897</v>
       </c>
       <c r="AN23">
-        <v>0.2405222347382255</v>
+        <v>0.3197694450276987</v>
       </c>
       <c r="AO23">
-        <v>0.1946422708864252</v>
+        <v>0.2780603869806075</v>
       </c>
       <c r="AP23">
-        <v>0.148762307034625</v>
+        <v>0.2363513289335163</v>
       </c>
       <c r="AQ23">
-        <v>0.1028823431828248</v>
+        <v>0.1946422708864253</v>
       </c>
       <c r="AR23">
-        <v>0.05700237933102449</v>
+        <v>0.1529332128393341</v>
       </c>
       <c r="AS23">
-        <v>0.0111224154792243</v>
+        <v>0.111224154792243</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -26907,76 +26907,76 @@
         <v>1.11224154792243</v>
       </c>
       <c r="V24">
-        <v>1.06636158407063</v>
+        <v>1.070532489875339</v>
       </c>
       <c r="W24">
-        <v>1.02048162021883</v>
+        <v>1.028823431828248</v>
       </c>
       <c r="X24">
-        <v>0.9746016563670292</v>
+        <v>0.9871143737811565</v>
       </c>
       <c r="Y24">
-        <v>0.928721692515229</v>
+        <v>0.9454053157340654</v>
       </c>
       <c r="Z24">
-        <v>0.8828417286634287</v>
+        <v>0.9036962576869743</v>
       </c>
       <c r="AA24">
-        <v>0.8369617648116284</v>
+        <v>0.8619871996398831</v>
       </c>
       <c r="AB24">
-        <v>0.7910818009598283</v>
+        <v>0.820278141592792</v>
       </c>
       <c r="AC24">
-        <v>0.7452018371080281</v>
+        <v>0.7785690835457011</v>
       </c>
       <c r="AD24">
-        <v>0.6993218732562279</v>
+        <v>0.7368600254986098</v>
       </c>
       <c r="AE24">
-        <v>0.6534419094044275</v>
+        <v>0.6951509674515186</v>
       </c>
       <c r="AF24">
-        <v>0.6075619455526274</v>
+        <v>0.6534419094044277</v>
       </c>
       <c r="AG24">
-        <v>0.5616819817008271</v>
+        <v>0.6117328513573365</v>
       </c>
       <c r="AH24">
-        <v>0.5158020178490269</v>
+        <v>0.5700237933102453</v>
       </c>
       <c r="AI24">
-        <v>0.4699220539972266</v>
+        <v>0.5283147352631542</v>
       </c>
       <c r="AJ24">
-        <v>0.4240420901454264</v>
+        <v>0.4866056772160631</v>
       </c>
       <c r="AK24">
-        <v>0.3781621262936262</v>
+        <v>0.4448966191689721</v>
       </c>
       <c r="AL24">
-        <v>0.3322821624418259</v>
+        <v>0.4031875611218808</v>
       </c>
       <c r="AM24">
-        <v>0.2864021985900257</v>
+        <v>0.3614785030747897</v>
       </c>
       <c r="AN24">
-        <v>0.2405222347382255</v>
+        <v>0.3197694450276987</v>
       </c>
       <c r="AO24">
-        <v>0.1946422708864252</v>
+        <v>0.2780603869806075</v>
       </c>
       <c r="AP24">
-        <v>0.148762307034625</v>
+        <v>0.2363513289335163</v>
       </c>
       <c r="AQ24">
-        <v>0.1028823431828248</v>
+        <v>0.1946422708864253</v>
       </c>
       <c r="AR24">
-        <v>0.05700237933102449</v>
+        <v>0.1529332128393341</v>
       </c>
       <c r="AS24">
-        <v>0.0111224154792243</v>
+        <v>0.111224154792243</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -27032,76 +27032,76 @@
         <v>2E-06</v>
       </c>
       <c r="V25">
-        <v>1.9175E-06</v>
+        <v>1.925E-06</v>
       </c>
       <c r="W25">
-        <v>1.835E-06</v>
+        <v>1.85E-06</v>
       </c>
       <c r="X25">
-        <v>1.7525E-06</v>
+        <v>1.775E-06</v>
       </c>
       <c r="Y25">
-        <v>1.67E-06</v>
+        <v>1.7E-06</v>
       </c>
       <c r="Z25">
-        <v>1.5875E-06</v>
+        <v>1.625E-06</v>
       </c>
       <c r="AA25">
-        <v>1.505E-06</v>
+        <v>1.55E-06</v>
       </c>
       <c r="AB25">
-        <v>1.4225E-06</v>
+        <v>1.475E-06</v>
       </c>
       <c r="AC25">
-        <v>1.34E-06</v>
+        <v>1.4E-06</v>
       </c>
       <c r="AD25">
-        <v>1.2575E-06</v>
+        <v>1.325E-06</v>
       </c>
       <c r="AE25">
+        <v>1.25E-06</v>
+      </c>
+      <c r="AF25">
         <v>1.175E-06</v>
       </c>
-      <c r="AF25">
-        <v>1.0925E-06</v>
-      </c>
       <c r="AG25">
-        <v>1.01E-06</v>
+        <v>1.1E-06</v>
       </c>
       <c r="AH25">
-        <v>9.275000000000001E-07</v>
+        <v>1.025E-06</v>
       </c>
       <c r="AI25">
-        <v>8.449999999999999E-07</v>
+        <v>9.499999999999999E-07</v>
       </c>
       <c r="AJ25">
-        <v>7.625E-07</v>
+        <v>8.75E-07</v>
       </c>
       <c r="AK25">
-        <v>6.800000000000001E-07</v>
+        <v>8E-07</v>
       </c>
       <c r="AL25">
-        <v>5.974999999999999E-07</v>
+        <v>7.249999999999998E-07</v>
       </c>
       <c r="AM25">
-        <v>5.149999999999999E-07</v>
+        <v>6.499999999999999E-07</v>
       </c>
       <c r="AN25">
-        <v>4.325E-07</v>
+        <v>5.75E-07</v>
       </c>
       <c r="AO25">
-        <v>3.499999999999999E-07</v>
+        <v>4.999999999999999E-07</v>
       </c>
       <c r="AP25">
-        <v>2.675E-07</v>
+        <v>4.25E-07</v>
       </c>
       <c r="AQ25">
-        <v>1.850000000000001E-07</v>
+        <v>3.5E-07</v>
       </c>
       <c r="AR25">
-        <v>1.024999999999999E-07</v>
+        <v>2.749999999999999E-07</v>
       </c>
       <c r="AS25">
-        <v>2E-08</v>
+        <v>2E-07</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -27157,76 +27157,76 @@
         <v>6E-07</v>
       </c>
       <c r="V26">
-        <v>5.7525E-07</v>
+        <v>5.775E-07</v>
       </c>
       <c r="W26">
-        <v>5.505E-07</v>
+        <v>5.549999999999999E-07</v>
       </c>
       <c r="X26">
-        <v>5.257499999999999E-07</v>
+        <v>5.325E-07</v>
       </c>
       <c r="Y26">
-        <v>5.009999999999999E-07</v>
+        <v>5.1E-07</v>
       </c>
       <c r="Z26">
-        <v>4.762499999999999E-07</v>
+        <v>4.875E-07</v>
       </c>
       <c r="AA26">
-        <v>4.515E-07</v>
+        <v>4.65E-07</v>
       </c>
       <c r="AB26">
-        <v>4.2675E-07</v>
+        <v>4.424999999999999E-07</v>
       </c>
       <c r="AC26">
-        <v>4.02E-07</v>
+        <v>4.200000000000001E-07</v>
       </c>
       <c r="AD26">
-        <v>3.7725E-07</v>
+        <v>3.975E-07</v>
       </c>
       <c r="AE26">
-        <v>3.524999999999999E-07</v>
+        <v>3.749999999999999E-07</v>
       </c>
       <c r="AF26">
-        <v>3.2775E-07</v>
+        <v>3.525E-07</v>
       </c>
       <c r="AG26">
-        <v>3.03E-07</v>
+        <v>3.3E-07</v>
       </c>
       <c r="AH26">
-        <v>2.7825E-07</v>
+        <v>3.075E-07</v>
       </c>
       <c r="AI26">
-        <v>2.535E-07</v>
+        <v>2.85E-07</v>
       </c>
       <c r="AJ26">
-        <v>2.2875E-07</v>
+        <v>2.625E-07</v>
       </c>
       <c r="AK26">
-        <v>2.04E-07</v>
+        <v>2.4E-07</v>
       </c>
       <c r="AL26">
-        <v>1.7925E-07</v>
+        <v>2.175E-07</v>
       </c>
       <c r="AM26">
-        <v>1.545E-07</v>
+        <v>1.95E-07</v>
       </c>
       <c r="AN26">
-        <v>1.2975E-07</v>
+        <v>1.725E-07</v>
       </c>
       <c r="AO26">
+        <v>1.5E-07</v>
+      </c>
+      <c r="AP26">
+        <v>1.275E-07</v>
+      </c>
+      <c r="AQ26">
         <v>1.05E-07</v>
       </c>
-      <c r="AP26">
-        <v>8.024999999999999E-08</v>
-      </c>
-      <c r="AQ26">
-        <v>5.550000000000002E-08</v>
-      </c>
       <c r="AR26">
-        <v>3.074999999999997E-08</v>
+        <v>8.249999999999998E-08</v>
       </c>
       <c r="AS26">
-        <v>6.000000000000001E-09</v>
+        <v>5.999999999999999E-08</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -27282,76 +27282,76 @@
         <v>1.66419636831042</v>
       </c>
       <c r="V27">
-        <v>1.595548268117615</v>
+        <v>1.601789004498779</v>
       </c>
       <c r="W27">
-        <v>1.52690016792481</v>
+        <v>1.539381640687138</v>
       </c>
       <c r="X27">
-        <v>1.458252067732005</v>
+        <v>1.476974276875498</v>
       </c>
       <c r="Y27">
-        <v>1.389603967539201</v>
+        <v>1.414566913063857</v>
       </c>
       <c r="Z27">
-        <v>1.320955867346396</v>
+        <v>1.352159549252216</v>
       </c>
       <c r="AA27">
-        <v>1.252307767153591</v>
+        <v>1.289752185440575</v>
       </c>
       <c r="AB27">
-        <v>1.183659666960786</v>
+        <v>1.227344821628935</v>
       </c>
       <c r="AC27">
-        <v>1.115011566767981</v>
+        <v>1.164937457817294</v>
       </c>
       <c r="AD27">
-        <v>1.046363466575177</v>
+        <v>1.102530094005653</v>
       </c>
       <c r="AE27">
-        <v>0.9777153663823716</v>
+        <v>1.040122730194012</v>
       </c>
       <c r="AF27">
-        <v>0.909067266189567</v>
+        <v>0.9777153663823719</v>
       </c>
       <c r="AG27">
-        <v>0.840419165996762</v>
+        <v>0.915308002570731</v>
       </c>
       <c r="AH27">
-        <v>0.7717710658039574</v>
+        <v>0.8529006387590903</v>
       </c>
       <c r="AI27">
-        <v>0.7031229656111524</v>
+        <v>0.7904932749474494</v>
       </c>
       <c r="AJ27">
-        <v>0.6344748654183476</v>
+        <v>0.7280859111358087</v>
       </c>
       <c r="AK27">
-        <v>0.5658267652255429</v>
+        <v>0.6656785473241681</v>
       </c>
       <c r="AL27">
-        <v>0.4971786650327379</v>
+        <v>0.6032711835125272</v>
       </c>
       <c r="AM27">
-        <v>0.4285305648399331</v>
+        <v>0.5408638197008865</v>
       </c>
       <c r="AN27">
-        <v>0.3598824646471284</v>
+        <v>0.4784564558892458</v>
       </c>
       <c r="AO27">
-        <v>0.2912343644543234</v>
+        <v>0.4160490920776049</v>
       </c>
       <c r="AP27">
-        <v>0.2225862642615187</v>
+        <v>0.3536417282659642</v>
       </c>
       <c r="AQ27">
-        <v>0.1539381640687139</v>
+        <v>0.2912343644543235</v>
       </c>
       <c r="AR27">
-        <v>0.08529006387590897</v>
+        <v>0.2288270006426827</v>
       </c>
       <c r="AS27">
-        <v>0.0166419636831042</v>
+        <v>0.166419636831042</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -27407,76 +27407,76 @@
         <v>0.0011785773758761</v>
       </c>
       <c r="V28">
-        <v>0.001129961059121211</v>
+        <v>0.001134380724280746</v>
       </c>
       <c r="W28">
-        <v>0.001081344742366322</v>
+        <v>0.001090184072685393</v>
       </c>
       <c r="X28">
-        <v>0.001032728425611433</v>
+        <v>0.001045987421090039</v>
       </c>
       <c r="Y28">
-        <v>0.0009841121088565434</v>
+        <v>0.001001790769494685</v>
       </c>
       <c r="Z28">
-        <v>0.0009354957921016544</v>
+        <v>0.0009575941178993312</v>
       </c>
       <c r="AA28">
-        <v>0.0008868794753467652</v>
+        <v>0.0009133974663039776</v>
       </c>
       <c r="AB28">
-        <v>0.0008382631585918761</v>
+        <v>0.0008692008147086238</v>
       </c>
       <c r="AC28">
-        <v>0.0007896468418369871</v>
+        <v>0.0008250041631132701</v>
       </c>
       <c r="AD28">
-        <v>0.000741030525082098</v>
+        <v>0.0007808075115179164</v>
       </c>
       <c r="AE28">
-        <v>0.0006924142083272087</v>
+        <v>0.0007366108599225625</v>
       </c>
       <c r="AF28">
-        <v>0.0006437978915723198</v>
+        <v>0.0006924142083272089</v>
       </c>
       <c r="AG28">
-        <v>0.0005951815748174306</v>
+        <v>0.000648217556731855</v>
       </c>
       <c r="AH28">
-        <v>0.0005465652580625414</v>
+        <v>0.0006040209051365013</v>
       </c>
       <c r="AI28">
-        <v>0.0004979489413076523</v>
+        <v>0.0005598242535411475</v>
       </c>
       <c r="AJ28">
-        <v>0.0004493326245527631</v>
+        <v>0.0005156276019457937</v>
       </c>
       <c r="AK28">
-        <v>0.0004007163077978741</v>
+        <v>0.0004714309503504401</v>
       </c>
       <c r="AL28">
-        <v>0.0003520999910429849</v>
+        <v>0.0004272342987550862</v>
       </c>
       <c r="AM28">
-        <v>0.0003034836742880958</v>
+        <v>0.0003830376471597325</v>
       </c>
       <c r="AN28">
-        <v>0.0002548673575332067</v>
+        <v>0.0003388409955643788</v>
       </c>
       <c r="AO28">
-        <v>0.0002062510407783175</v>
+        <v>0.000294644343969025</v>
       </c>
       <c r="AP28">
-        <v>0.0001576347240234284</v>
+        <v>0.0002504476923736713</v>
       </c>
       <c r="AQ28">
-        <v>0.0001090184072685393</v>
+        <v>0.0002062510407783176</v>
       </c>
       <c r="AR28">
-        <v>6.040209051365009E-05</v>
+        <v>0.0001620543891829637</v>
       </c>
       <c r="AS28">
-        <v>1.1785773758761E-05</v>
+        <v>0.00011785773758761</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -27532,76 +27532,76 @@
         <v>1.55494471322572</v>
       </c>
       <c r="V29">
-        <v>1.490803243805159</v>
+        <v>1.496634286479755</v>
       </c>
       <c r="W29">
-        <v>1.426661774384598</v>
+        <v>1.438323859733791</v>
       </c>
       <c r="X29">
-        <v>1.362520304964037</v>
+        <v>1.380013432987826</v>
       </c>
       <c r="Y29">
-        <v>1.298378835543476</v>
+        <v>1.321703006241862</v>
       </c>
       <c r="Z29">
-        <v>1.234237366122915</v>
+        <v>1.263392579495897</v>
       </c>
       <c r="AA29">
-        <v>1.170095896702354</v>
+        <v>1.205082152749933</v>
       </c>
       <c r="AB29">
-        <v>1.105954427281793</v>
+        <v>1.146771726003968</v>
       </c>
       <c r="AC29">
-        <v>1.041812957861233</v>
+        <v>1.088461299258004</v>
       </c>
       <c r="AD29">
-        <v>0.9776714884406714</v>
+        <v>1.030150872512039</v>
       </c>
       <c r="AE29">
-        <v>0.9135300190201103</v>
+        <v>0.9718404457660748</v>
       </c>
       <c r="AF29">
-        <v>0.8493885495995496</v>
+        <v>0.9135300190201106</v>
       </c>
       <c r="AG29">
-        <v>0.7852470801789886</v>
+        <v>0.8552195922741459</v>
       </c>
       <c r="AH29">
-        <v>0.7211056107584276</v>
+        <v>0.7969091655281815</v>
       </c>
       <c r="AI29">
-        <v>0.6569641413378666</v>
+        <v>0.7385987387822169</v>
       </c>
       <c r="AJ29">
-        <v>0.5928226719173056</v>
+        <v>0.6802883120362524</v>
       </c>
       <c r="AK29">
-        <v>0.5286812024967449</v>
+        <v>0.6219778852902881</v>
       </c>
       <c r="AL29">
-        <v>0.4645397330761837</v>
+        <v>0.5636674585443234</v>
       </c>
       <c r="AM29">
-        <v>0.4003982636556229</v>
+        <v>0.505357031798359</v>
       </c>
       <c r="AN29">
-        <v>0.336256794235062</v>
+        <v>0.4470466050523946</v>
       </c>
       <c r="AO29">
-        <v>0.272115324814501</v>
+        <v>0.3887361783064299</v>
       </c>
       <c r="AP29">
-        <v>0.20797385539394</v>
+        <v>0.3304257515604655</v>
       </c>
       <c r="AQ29">
-        <v>0.1438323859733792</v>
+        <v>0.2721153248145011</v>
       </c>
       <c r="AR29">
-        <v>0.0796909165528181</v>
+        <v>0.2138048980685364</v>
       </c>
       <c r="AS29">
-        <v>0.0155494471322572</v>
+        <v>0.155494471322572</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -27657,76 +27657,76 @@
         <v>1.55494471322572</v>
       </c>
       <c r="V30">
-        <v>1.490803243805159</v>
+        <v>1.496634286479755</v>
       </c>
       <c r="W30">
-        <v>1.426661774384598</v>
+        <v>1.438323859733791</v>
       </c>
       <c r="X30">
-        <v>1.362520304964037</v>
+        <v>1.380013432987826</v>
       </c>
       <c r="Y30">
-        <v>1.298378835543476</v>
+        <v>1.321703006241862</v>
       </c>
       <c r="Z30">
-        <v>1.234237366122915</v>
+        <v>1.263392579495897</v>
       </c>
       <c r="AA30">
-        <v>1.170095896702354</v>
+        <v>1.205082152749933</v>
       </c>
       <c r="AB30">
-        <v>1.105954427281793</v>
+        <v>1.146771726003968</v>
       </c>
       <c r="AC30">
-        <v>1.041812957861233</v>
+        <v>1.088461299258004</v>
       </c>
       <c r="AD30">
-        <v>0.9776714884406714</v>
+        <v>1.030150872512039</v>
       </c>
       <c r="AE30">
-        <v>0.9135300190201103</v>
+        <v>0.9718404457660748</v>
       </c>
       <c r="AF30">
-        <v>0.8493885495995496</v>
+        <v>0.9135300190201106</v>
       </c>
       <c r="AG30">
-        <v>0.7852470801789886</v>
+        <v>0.8552195922741459</v>
       </c>
       <c r="AH30">
-        <v>0.7211056107584276</v>
+        <v>0.7969091655281815</v>
       </c>
       <c r="AI30">
-        <v>0.6569641413378666</v>
+        <v>0.7385987387822169</v>
       </c>
       <c r="AJ30">
-        <v>0.5928226719173056</v>
+        <v>0.6802883120362524</v>
       </c>
       <c r="AK30">
-        <v>0.5286812024967449</v>
+        <v>0.6219778852902881</v>
       </c>
       <c r="AL30">
-        <v>0.4645397330761837</v>
+        <v>0.5636674585443234</v>
       </c>
       <c r="AM30">
-        <v>0.4003982636556229</v>
+        <v>0.505357031798359</v>
       </c>
       <c r="AN30">
-        <v>0.336256794235062</v>
+        <v>0.4470466050523946</v>
       </c>
       <c r="AO30">
-        <v>0.272115324814501</v>
+        <v>0.3887361783064299</v>
       </c>
       <c r="AP30">
-        <v>0.20797385539394</v>
+        <v>0.3304257515604655</v>
       </c>
       <c r="AQ30">
-        <v>0.1438323859733792</v>
+        <v>0.2721153248145011</v>
       </c>
       <c r="AR30">
-        <v>0.0796909165528181</v>
+        <v>0.2138048980685364</v>
       </c>
       <c r="AS30">
-        <v>0.0155494471322572</v>
+        <v>0.155494471322572</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -27782,76 +27782,76 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0.95875</v>
+        <v>0.9625</v>
       </c>
       <c r="W31">
-        <v>0.9175</v>
+        <v>0.9249999999999999</v>
       </c>
       <c r="X31">
-        <v>0.87625</v>
+        <v>0.8875</v>
       </c>
       <c r="Y31">
-        <v>0.8350000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
-        <v>0.79375</v>
+        <v>0.8125</v>
       </c>
       <c r="AA31">
-        <v>0.7524999999999999</v>
+        <v>0.775</v>
       </c>
       <c r="AB31">
-        <v>0.7112499999999999</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.67</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AD31">
-        <v>0.62875</v>
+        <v>0.6625</v>
       </c>
       <c r="AE31">
-        <v>0.5874999999999999</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="AF31">
-        <v>0.5462500000000001</v>
+        <v>0.5875000000000001</v>
       </c>
       <c r="AG31">
-        <v>0.505</v>
+        <v>0.55</v>
       </c>
       <c r="AH31">
-        <v>0.4637500000000001</v>
+        <v>0.5125000000000001</v>
       </c>
       <c r="AI31">
-        <v>0.4225</v>
+        <v>0.475</v>
       </c>
       <c r="AJ31">
-        <v>0.38125</v>
+        <v>0.4375</v>
       </c>
       <c r="AK31">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="AL31">
-        <v>0.29875</v>
+        <v>0.3625</v>
       </c>
       <c r="AM31">
-        <v>0.2575</v>
+        <v>0.325</v>
       </c>
       <c r="AN31">
-        <v>0.21625</v>
+        <v>0.2875</v>
       </c>
       <c r="AO31">
+        <v>0.25</v>
+      </c>
+      <c r="AP31">
+        <v>0.2125</v>
+      </c>
+      <c r="AQ31">
         <v>0.175</v>
       </c>
-      <c r="AP31">
-        <v>0.13375</v>
-      </c>
-      <c r="AQ31">
-        <v>0.09250000000000004</v>
-      </c>
       <c r="AR31">
-        <v>0.05124999999999996</v>
+        <v>0.1375</v>
       </c>
       <c r="AS31">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -27907,76 +27907,76 @@
         <v>0.03741</v>
       </c>
       <c r="V32">
-        <v>0.0358668375</v>
+        <v>0.036007125</v>
       </c>
       <c r="W32">
-        <v>0.034323675</v>
+        <v>0.03460425</v>
       </c>
       <c r="X32">
-        <v>0.0327805125</v>
+        <v>0.033201375</v>
       </c>
       <c r="Y32">
-        <v>0.03123735</v>
+        <v>0.0317985</v>
       </c>
       <c r="Z32">
-        <v>0.0296941875</v>
+        <v>0.030395625</v>
       </c>
       <c r="AA32">
-        <v>0.028151025</v>
+        <v>0.02899275</v>
       </c>
       <c r="AB32">
-        <v>0.0266078625</v>
+        <v>0.027589875</v>
       </c>
       <c r="AC32">
-        <v>0.0250647</v>
+        <v>0.026187</v>
       </c>
       <c r="AD32">
-        <v>0.0235215375</v>
+        <v>0.024784125</v>
       </c>
       <c r="AE32">
+        <v>0.02338125</v>
+      </c>
+      <c r="AF32">
         <v>0.021978375</v>
       </c>
-      <c r="AF32">
-        <v>0.0204352125</v>
-      </c>
       <c r="AG32">
-        <v>0.01889205</v>
+        <v>0.0205755</v>
       </c>
       <c r="AH32">
-        <v>0.0173488875</v>
+        <v>0.019172625</v>
       </c>
       <c r="AI32">
-        <v>0.015805725</v>
+        <v>0.01776975</v>
       </c>
       <c r="AJ32">
-        <v>0.0142625625</v>
+        <v>0.016366875</v>
       </c>
       <c r="AK32">
-        <v>0.0127194</v>
+        <v>0.014964</v>
       </c>
       <c r="AL32">
-        <v>0.0111762375</v>
+        <v>0.013561125</v>
       </c>
       <c r="AM32">
-        <v>0.009633075</v>
+        <v>0.01215825</v>
       </c>
       <c r="AN32">
-        <v>0.008089912500000001</v>
+        <v>0.010755375</v>
       </c>
       <c r="AO32">
-        <v>0.006546749999999999</v>
+        <v>0.009352499999999998</v>
       </c>
       <c r="AP32">
-        <v>0.0050035875</v>
+        <v>0.007949625</v>
       </c>
       <c r="AQ32">
-        <v>0.003460425000000001</v>
+        <v>0.006546750000000001</v>
       </c>
       <c r="AR32">
-        <v>0.001917262499999999</v>
+        <v>0.005143874999999999</v>
       </c>
       <c r="AS32">
-        <v>0.0003741</v>
+        <v>0.003741</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -28032,76 +28032,76 @@
         <v>0.0007</v>
       </c>
       <c r="V33">
-        <v>0.0006711250000000001</v>
+        <v>0.0006737500000000001</v>
       </c>
       <c r="W33">
-        <v>0.00064225</v>
+        <v>0.0006475000000000001</v>
       </c>
       <c r="X33">
-        <v>0.000613375</v>
+        <v>0.0006212499999999999</v>
       </c>
       <c r="Y33">
-        <v>0.0005845000000000001</v>
+        <v>0.000595</v>
       </c>
       <c r="Z33">
-        <v>0.000555625</v>
+        <v>0.00056875</v>
       </c>
       <c r="AA33">
-        <v>0.00052675</v>
+        <v>0.0005425</v>
       </c>
       <c r="AB33">
-        <v>0.0004978749999999999</v>
+        <v>0.0005162499999999999</v>
       </c>
       <c r="AC33">
-        <v>0.0004690000000000001</v>
+        <v>0.0004900000000000001</v>
       </c>
       <c r="AD33">
-        <v>0.000440125</v>
+        <v>0.00046375</v>
       </c>
       <c r="AE33">
+        <v>0.0004375</v>
+      </c>
+      <c r="AF33">
         <v>0.00041125</v>
       </c>
-      <c r="AF33">
-        <v>0.000382375</v>
-      </c>
       <c r="AG33">
-        <v>0.0003535</v>
+        <v>0.000385</v>
       </c>
       <c r="AH33">
-        <v>0.000324625</v>
+        <v>0.00035875</v>
       </c>
       <c r="AI33">
-        <v>0.00029575</v>
+        <v>0.0003325</v>
       </c>
       <c r="AJ33">
-        <v>0.000266875</v>
+        <v>0.00030625</v>
       </c>
       <c r="AK33">
-        <v>0.000238</v>
+        <v>0.00028</v>
       </c>
       <c r="AL33">
-        <v>0.000209125</v>
+        <v>0.00025375</v>
       </c>
       <c r="AM33">
-        <v>0.00018025</v>
+        <v>0.0002275</v>
       </c>
       <c r="AN33">
-        <v>0.000151375</v>
+        <v>0.00020125</v>
       </c>
       <c r="AO33">
-        <v>0.0001225</v>
+        <v>0.000175</v>
       </c>
       <c r="AP33">
-        <v>9.3625E-05</v>
+        <v>0.00014875</v>
       </c>
       <c r="AQ33">
-        <v>6.475000000000003E-05</v>
+        <v>0.0001225000000000001</v>
       </c>
       <c r="AR33">
-        <v>3.587499999999998E-05</v>
+        <v>9.624999999999998E-05</v>
       </c>
       <c r="AS33">
-        <v>7.000000000000002E-06</v>
+        <v>7.000000000000001E-05</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -28157,76 +28157,76 @@
         <v>0.72</v>
       </c>
       <c r="V34">
-        <v>0.7004166666666666</v>
+        <v>0.7108333333333333</v>
       </c>
       <c r="W34">
-        <v>0.6808333333333333</v>
+        <v>0.7016666666666665</v>
       </c>
       <c r="X34">
-        <v>0.66125</v>
+        <v>0.6925</v>
       </c>
       <c r="Y34">
-        <v>0.6416666666666666</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="Z34">
-        <v>0.6220833333333333</v>
+        <v>0.6741666666666666</v>
       </c>
       <c r="AA34">
-        <v>0.6025</v>
+        <v>0.665</v>
       </c>
       <c r="AB34">
-        <v>0.5829166666666665</v>
+        <v>0.6558333333333333</v>
       </c>
       <c r="AC34">
-        <v>0.5633333333333334</v>
+        <v>0.6466666666666667</v>
       </c>
       <c r="AD34">
-        <v>0.54375</v>
+        <v>0.6375</v>
       </c>
       <c r="AE34">
-        <v>0.5241666666666666</v>
+        <v>0.6283333333333333</v>
       </c>
       <c r="AF34">
-        <v>0.5045833333333334</v>
+        <v>0.6191666666666666</v>
       </c>
       <c r="AG34">
-        <v>0.485</v>
+        <v>0.61</v>
       </c>
       <c r="AH34">
-        <v>0.4654166666666667</v>
+        <v>0.6008333333333333</v>
       </c>
       <c r="AI34">
-        <v>0.4458333333333333</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="AJ34">
-        <v>0.42625</v>
+        <v>0.5825</v>
       </c>
       <c r="AK34">
-        <v>0.4066666666666667</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="AL34">
-        <v>0.3870833333333333</v>
+        <v>0.5641666666666667</v>
       </c>
       <c r="AM34">
-        <v>0.3675</v>
+        <v>0.5549999999999999</v>
       </c>
       <c r="AN34">
-        <v>0.3479166666666667</v>
+        <v>0.5458333333333334</v>
       </c>
       <c r="AO34">
-        <v>0.3283333333333333</v>
+        <v>0.5366666666666666</v>
       </c>
       <c r="AP34">
-        <v>0.30875</v>
+        <v>0.5275</v>
       </c>
       <c r="AQ34">
-        <v>0.2891666666666667</v>
+        <v>0.5183333333333333</v>
       </c>
       <c r="AR34">
-        <v>0.2695833333333333</v>
+        <v>0.5091666666666667</v>
       </c>
       <c r="AS34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:45">

--- a/georgia/transformations/templates/calibrated/georgia/model_input_variables_georgia_ip_calibrated.xlsx
+++ b/georgia/transformations/templates/calibrated/georgia/model_input_variables_georgia_ip_calibrated.xlsx
@@ -17136,112 +17136,112 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>1241355.35</v>
+        <v>6519531.720317908</v>
       </c>
       <c r="K132">
-        <v>1605570.879</v>
+        <v>8432372.144575045</v>
       </c>
       <c r="L132">
-        <v>1620227.504</v>
+        <v>8509347.95299308</v>
       </c>
       <c r="M132">
-        <v>1697468.527</v>
+        <v>8915013.663104456</v>
       </c>
       <c r="N132">
-        <v>1762755.36</v>
+        <v>9257896.608477511</v>
       </c>
       <c r="O132">
-        <v>1658612.581</v>
+        <v>8710944.318681879</v>
       </c>
       <c r="P132">
-        <v>1658613</v>
+        <v>8710946.519247405</v>
       </c>
       <c r="Q132">
-        <v>1767739.603</v>
+        <v>9284073.585392518</v>
       </c>
       <c r="R132">
-        <v>1884046.069</v>
+        <v>9894908.906934474</v>
       </c>
       <c r="S132">
-        <v>2008004.79</v>
+        <v>10545933.46132137</v>
       </c>
       <c r="T132">
-        <v>2140119.238</v>
+        <v>11239791.45649438</v>
       </c>
       <c r="U132">
-        <v>2280926.01</v>
+        <v>11979301.07111808</v>
       </c>
       <c r="V132">
-        <v>2430997.006</v>
+        <v>12767465.89331964</v>
       </c>
       <c r="W132">
-        <v>2590941.758</v>
+        <v>13607487.15247189</v>
       </c>
       <c r="X132">
-        <v>2761409.897</v>
+        <v>14502776.67574503</v>
       </c>
       <c r="Y132">
-        <v>2943093.798</v>
+        <v>15456970.77950476</v>
       </c>
       <c r="Z132">
-        <v>3136731.39</v>
+        <v>16473945.02728158</v>
       </c>
       <c r="AA132">
-        <v>3343109.153</v>
+        <v>17557829.96985402</v>
       </c>
       <c r="AB132">
-        <v>3563065.311</v>
+        <v>18713027.91471345</v>
       </c>
       <c r="AC132">
-        <v>3797493.241</v>
+        <v>19944230.82994918</v>
       </c>
       <c r="AD132">
-        <v>4047345.097</v>
+        <v>21256439.37730212</v>
       </c>
       <c r="AE132">
-        <v>4313635.678</v>
+        <v>22654983.22669334</v>
       </c>
       <c r="AF132">
-        <v>4597446.553</v>
+        <v>24145542.72050282</v>
       </c>
       <c r="AG132">
-        <v>4899930.45</v>
+        <v>25734171.92436203</v>
       </c>
       <c r="AH132">
-        <v>5222315.939</v>
+        <v>27427323.22201882</v>
       </c>
       <c r="AI132">
-        <v>5565912.423</v>
+        <v>29231873.52780169</v>
       </c>
       <c r="AJ132">
-        <v>5932115.457</v>
+        <v>31155152.22172254</v>
       </c>
       <c r="AK132">
-        <v>6322412.414</v>
+        <v>33204970.90700476</v>
       </c>
       <c r="AL132">
-        <v>6738388.526</v>
+        <v>35389655.13709126</v>
       </c>
       <c r="AM132">
-        <v>7181733.325</v>
+        <v>37718078.24343102</v>
       </c>
       <c r="AN132">
-        <v>7654247.503</v>
+        <v>40199697.3638311</v>
       </c>
       <c r="AO132">
-        <v>8157850.227</v>
+        <v>42844591.86044443</v>
       </c>
       <c r="AP132">
-        <v>8694586.934</v>
+        <v>45663504.25869162</v>
       </c>
       <c r="AQ132">
-        <v>9266637.638</v>
+        <v>48667883.87517951</v>
       </c>
       <c r="AR132">
-        <v>9876325.783</v>
+        <v>51869933.31318232</v>
       </c>
       <c r="AS132">
-        <v>10526127.68</v>
+        <v>55282658.02525952</v>
       </c>
     </row>
     <row r="133" spans="1:45">
@@ -17258,112 +17258,112 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <v>70542.3652121339</v>
+        <v>129663.5855803985</v>
       </c>
       <c r="K133">
-        <v>68219.1184335297</v>
+        <v>125393.236739726</v>
       </c>
       <c r="L133">
-        <v>63478.1224758023</v>
+        <v>116678.8346459985</v>
       </c>
       <c r="M133">
-        <v>57407.5074048413</v>
+        <v>105520.4659917559</v>
       </c>
       <c r="N133">
-        <v>69432.561787042</v>
+        <v>127623.6611895153</v>
       </c>
       <c r="O133">
-        <v>73327.9521922353</v>
+        <v>134783.759743823</v>
       </c>
       <c r="P133">
-        <v>73327.95</v>
+        <v>134783.7557142857</v>
       </c>
       <c r="Q133">
-        <v>75103.6454702401</v>
+        <v>138047.6531024413</v>
       </c>
       <c r="R133">
-        <v>76922.3408389231</v>
+        <v>141390.5883991634</v>
       </c>
       <c r="S133">
-        <v>78785.0773832822</v>
+        <v>144814.4755711759</v>
       </c>
       <c r="T133">
-        <v>80692.9215959188</v>
+        <v>148321.2749334507</v>
       </c>
       <c r="U133">
-        <v>82646.9657954131</v>
+        <v>151912.9942715688</v>
       </c>
       <c r="V133">
-        <v>84648.3287517211</v>
+        <v>155591.6899912588</v>
       </c>
       <c r="W133">
-        <v>86698.1563267156</v>
+        <v>159359.4682957725</v>
       </c>
       <c r="X133">
-        <v>88797.6221302396</v>
+        <v>163218.4863917737</v>
       </c>
       <c r="Y133">
-        <v>90947.9281920449</v>
+        <v>167170.9537244254</v>
       </c>
       <c r="Z133">
-        <v>93150.30565000371</v>
+        <v>171219.1332423878</v>
       </c>
       <c r="AA133">
-        <v>95406.0154549851</v>
+        <v>175365.3426934488</v>
       </c>
       <c r="AB133">
-        <v>97716.3490928009</v>
+        <v>179611.9559515293</v>
       </c>
       <c r="AC133">
-        <v>100082.629323633</v>
+        <v>183961.4043758206</v>
       </c>
       <c r="AD133">
-        <v>102506.210939371</v>
+        <v>188416.1782028438</v>
       </c>
       <c r="AE133">
-        <v>104988.481539278</v>
+        <v>192978.8279721967</v>
       </c>
       <c r="AF133">
-        <v>107530.862324459</v>
+        <v>197651.9659868627</v>
       </c>
       <c r="AG133">
-        <v>110134.808911546</v>
+        <v>202438.2678088417</v>
       </c>
       <c r="AH133">
-        <v>112801.812166102</v>
+        <v>207340.4737910256</v>
       </c>
       <c r="AI133">
-        <v>115533.399056207</v>
+        <v>212361.3906461709</v>
       </c>
       <c r="AJ133">
-        <v>118331.133526699</v>
+        <v>217503.8930538372</v>
       </c>
       <c r="AK133">
-        <v>121196.617394607</v>
+        <v>222770.9253062776</v>
       </c>
       <c r="AL133">
-        <v>124131.491266248</v>
+        <v>228165.5029941511</v>
       </c>
       <c r="AM133">
-        <v>127137.435476547</v>
+        <v>233690.7147330816</v>
       </c>
       <c r="AN133">
-        <v>130216.171051095</v>
+        <v>239349.7239320127</v>
       </c>
       <c r="AO133">
-        <v>133369.460691504</v>
+        <v>245145.7706043835</v>
       </c>
       <c r="AP133">
-        <v>136599.10978463</v>
+        <v>251082.1732231771</v>
       </c>
       <c r="AQ133">
-        <v>139906.967436226</v>
+        <v>257162.3306208725</v>
       </c>
       <c r="AR133">
-        <v>143294.927529636</v>
+        <v>263389.7239354262</v>
       </c>
       <c r="AS133">
-        <v>146764.929810113</v>
+        <v>269767.9186033506</v>
       </c>
     </row>
     <row r="134" spans="1:45">
@@ -17380,112 +17380,112 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <v>31661.7107577773</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>31609.0166466501</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>37303.8632916078</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>34723.1369657484</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>33431.1186690931</v>
+        <v>0</v>
       </c>
       <c r="O134">
-        <v>29974.179090005</v>
+        <v>0</v>
       </c>
       <c r="P134">
-        <v>29974.18</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>31680.6524209163</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>33484.276728001</v>
+        <v>0</v>
       </c>
       <c r="S134">
-        <v>35390.5839154091</v>
+        <v>0</v>
       </c>
       <c r="T134">
-        <v>37405.4198646084</v>
+        <v>0</v>
       </c>
       <c r="U134">
-        <v>39534.9632713588</v>
+        <v>0</v>
       </c>
       <c r="V134">
-        <v>41785.7445933004</v>
+        <v>0</v>
       </c>
       <c r="W134">
-        <v>44164.6660762541</v>
+        <v>0</v>
       </c>
       <c r="X134">
-        <v>46679.0229206484</v>
+        <v>0</v>
       </c>
       <c r="Y134">
-        <v>49336.5256529803</v>
+        <v>0</v>
       </c>
       <c r="Z134">
-        <v>52145.3237709152</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>55114.0307345359</v>
+        <v>0</v>
       </c>
       <c r="AB134">
-        <v>58251.7503803785</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>61568.1048392567</v>
+        <v>0</v>
       </c>
       <c r="AD134">
-        <v>65073.2640434878</v>
+        <v>0</v>
       </c>
       <c r="AE134">
-        <v>68777.9769140056</v>
+        <v>0</v>
       </c>
       <c r="AF134">
-        <v>72693.6043230013</v>
+        <v>0</v>
       </c>
       <c r="AG134">
-        <v>76832.1539331727</v>
+        <v>0</v>
       </c>
       <c r="AH134">
-        <v>81206.3170204217</v>
+        <v>0</v>
       </c>
       <c r="AI134">
-        <v>85829.50739292031</v>
+        <v>0</v>
       </c>
       <c r="AJ134">
-        <v>90715.90252589319</v>
+        <v>0</v>
       </c>
       <c r="AK134">
-        <v>95880.4870382626</v>
+        <v>0</v>
       </c>
       <c r="AL134">
-        <v>101339.098644479</v>
+        <v>0</v>
       </c>
       <c r="AM134">
-        <v>107108.476722456</v>
+        <v>0</v>
       </c>
       <c r="AN134">
-        <v>113206.313646543</v>
+        <v>0</v>
       </c>
       <c r="AO134">
-        <v>119651.309042962</v>
+        <v>0</v>
       </c>
       <c r="AP134">
-        <v>126463.227134077</v>
+        <v>0</v>
       </c>
       <c r="AQ134">
-        <v>133662.95734736</v>
+        <v>0</v>
       </c>
       <c r="AR134">
-        <v>141272.578374904</v>
+        <v>0</v>
       </c>
       <c r="AS134">
-        <v>149315.42587994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:45">
@@ -17502,112 +17502,112 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <v>8940.670088260311</v>
+        <v>29260.37483430647</v>
       </c>
       <c r="K135">
-        <v>8253.777816637659</v>
+        <v>27012.36376354143</v>
       </c>
       <c r="L135">
-        <v>8907.5581580285</v>
+        <v>29152.00851718418</v>
       </c>
       <c r="M135">
-        <v>9993.323283696949</v>
+        <v>32705.42165573547</v>
       </c>
       <c r="N135">
-        <v>11341.2548643067</v>
+        <v>37116.83410136738</v>
       </c>
       <c r="O135">
-        <v>10197.7118025819</v>
+        <v>33374.32953572258</v>
       </c>
       <c r="P135">
-        <v>10197.71</v>
+        <v>33374.32363636363</v>
       </c>
       <c r="Q135">
-        <v>10615.0397583377</v>
+        <v>34740.1301181961</v>
       </c>
       <c r="R135">
-        <v>11049.4482654527</v>
+        <v>36161.8306869361</v>
       </c>
       <c r="S135">
-        <v>11501.6344498399</v>
+        <v>37641.71274493058</v>
       </c>
       <c r="T135">
-        <v>11972.3258428526</v>
+        <v>39182.15730388123</v>
       </c>
       <c r="U135">
-        <v>12462.2797492432</v>
+        <v>40785.64281570502</v>
       </c>
       <c r="V135">
-        <v>12972.2844656048</v>
+        <v>42454.74916016116</v>
       </c>
       <c r="W135">
-        <v>13503.1605486783</v>
+        <v>44192.16179567443</v>
       </c>
       <c r="X135">
-        <v>14055.7621355615</v>
+        <v>46000.67608001945</v>
       </c>
       <c r="Y135">
-        <v>14630.9783179481</v>
+        <v>47883.20176783014</v>
       </c>
       <c r="Z135">
-        <v>15229.7345726047</v>
+        <v>49842.76769216084</v>
       </c>
       <c r="AA135">
-        <v>15852.9942503885</v>
+        <v>51882.52663763508</v>
       </c>
       <c r="AB135">
-        <v>16501.7601262021</v>
+        <v>54005.76041302505</v>
       </c>
       <c r="AC135">
-        <v>17177.076012378</v>
+        <v>56215.8851314189</v>
       </c>
       <c r="AD135">
-        <v>17880.0284380887</v>
+        <v>58516.4567064721</v>
       </c>
       <c r="AE135">
-        <v>18611.7483974853</v>
+        <v>60911.17657358824</v>
       </c>
       <c r="AF135">
-        <v>19373.4131693767</v>
+        <v>63403.89764523284</v>
       </c>
       <c r="AG135">
-        <v>20166.2482113766</v>
+        <v>65998.63050995977</v>
       </c>
       <c r="AH135">
-        <v>20991.5291315667</v>
+        <v>68699.54988512737</v>
       </c>
       <c r="AI135">
-        <v>21850.5837408481</v>
+        <v>71511.00133368468</v>
       </c>
       <c r="AJ135">
-        <v>22744.7941892827</v>
+        <v>74437.50825583428</v>
       </c>
       <c r="AK135">
-        <v>23675.5991898617</v>
+        <v>77483.7791668201</v>
       </c>
       <c r="AL135">
-        <v>24644.4963332797</v>
+        <v>80654.71527255174</v>
       </c>
       <c r="AM135">
-        <v>25653.0444974383</v>
+        <v>83955.41835525261</v>
       </c>
       <c r="AN135">
-        <v>26702.8663555557</v>
+        <v>87391.19898181864</v>
       </c>
       <c r="AO135">
-        <v>27795.6509869178</v>
+        <v>90967.58504809461</v>
       </c>
       <c r="AP135">
-        <v>28933.1565944718</v>
+        <v>94690.3306728168</v>
       </c>
       <c r="AQ135">
-        <v>30117.2133336336</v>
+        <v>98565.42545552814</v>
       </c>
       <c r="AR135">
-        <v>31349.7262568615</v>
+        <v>102599.1041133649</v>
       </c>
       <c r="AS135">
-        <v>32632.6783787329</v>
+        <v>106797.8565122168</v>
       </c>
     </row>
     <row r="136" spans="1:45">
@@ -17624,25 +17624,25 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <v>2008.54955261404</v>
+        <v>6503683.451364262</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
       <c r="L136">
-        <v>5024.68653401542</v>
+        <v>16269934.99714193</v>
       </c>
       <c r="M136">
-        <v>66.2049394887142</v>
+        <v>214371.5940644566</v>
       </c>
       <c r="N136">
-        <v>3041.92796834466</v>
+        <v>9849762.761500008</v>
       </c>
       <c r="O136">
-        <v>1155.04451665883</v>
+        <v>3740034.144941291</v>
       </c>
       <c r="P136">
-        <v>1155.045</v>
+        <v>3740035.71</v>
       </c>
       <c r="Q136" t="s">
         <v>196</v>
@@ -17746,112 +17746,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>383239.624088717</v>
+        <v>23080.25747313002</v>
       </c>
       <c r="K137">
-        <v>372151.121121669</v>
+        <v>22412.46247651508</v>
       </c>
       <c r="L137">
-        <v>435227.085920793</v>
+        <v>26211.15503444552</v>
       </c>
       <c r="M137">
-        <v>477722.782093899</v>
+        <v>28770.41964991268</v>
       </c>
       <c r="N137">
-        <v>447970.581175397</v>
+        <v>26978.62043493287</v>
       </c>
       <c r="O137">
-        <v>522290.938353534</v>
+        <v>31454.49628739771</v>
       </c>
       <c r="P137">
-        <v>522290.9</v>
+        <v>31454.49397759104</v>
       </c>
       <c r="Q137">
-        <v>536849.232890564</v>
+        <v>32331.25632254097</v>
       </c>
       <c r="R137">
-        <v>551813.3646502109</v>
+        <v>33232.45753495668</v>
       </c>
       <c r="S137">
-        <v>567194.606513777</v>
+        <v>34158.77882365885</v>
       </c>
       <c r="T137">
-        <v>583004.58500538</v>
+        <v>35110.92038547806</v>
       </c>
       <c r="U137">
-        <v>599255.250726788</v>
+        <v>36089.60193452644</v>
       </c>
       <c r="V137">
-        <v>615958.88739076</v>
+        <v>37095.56324622224</v>
       </c>
       <c r="W137">
-        <v>633128.121106177</v>
+        <v>38129.56471647845</v>
       </c>
       <c r="X137">
-        <v>650775.929921994</v>
+        <v>39192.38793647863</v>
       </c>
       <c r="Y137">
-        <v>668915.653637208</v>
+        <v>40284.83628347331</v>
       </c>
       <c r="Z137">
-        <v>687561.003884282</v>
+        <v>41407.73552804499</v>
       </c>
       <c r="AA137">
-        <v>706726.074493626</v>
+        <v>42561.93445829961</v>
       </c>
       <c r="AB137">
-        <v>726425.352146979</v>
+        <v>43748.30552145671</v>
       </c>
       <c r="AC137">
-        <v>746673.727327746</v>
+        <v>44967.74548332364</v>
       </c>
       <c r="AD137">
-        <v>767486.505576564</v>
+        <v>46221.17610615162</v>
       </c>
       <c r="AE137">
-        <v>788879.4190605989</v>
+        <v>47509.54484538621</v>
       </c>
       <c r="AF137">
-        <v>810868.638465339</v>
+        <v>48833.82556583974</v>
       </c>
       <c r="AG137">
-        <v>833470.785217841</v>
+        <v>50195.01927782516</v>
       </c>
       <c r="AH137">
-        <v>856702.944050708</v>
+        <v>51594.15489381015</v>
       </c>
       <c r="AI137">
-        <v>880582.675916256</v>
+        <v>53032.29000616108</v>
       </c>
       <c r="AJ137">
-        <v>905128.031260667</v>
+        <v>54510.51168656678</v>
       </c>
       <c r="AK137">
-        <v>930357.563668131</v>
+        <v>56029.93730774459</v>
       </c>
       <c r="AL137">
-        <v>956290.343885314</v>
+        <v>57591.71538805113</v>
       </c>
       <c r="AM137">
-        <v>982945.974236741</v>
+        <v>59197.02645963566</v>
       </c>
       <c r="AN137">
-        <v>1010344.60344199</v>
+        <v>60847.08396079212</v>
       </c>
       <c r="AO137">
-        <v>1038506.94184592</v>
+        <v>62543.13515318566</v>
       </c>
       <c r="AP137">
-        <v>1067454.27707339</v>
+        <v>64286.46206464394</v>
       </c>
       <c r="AQ137">
-        <v>1097208.49012035</v>
+        <v>66078.38245822836</v>
       </c>
       <c r="AR137">
-        <v>1127792.07189351</v>
+        <v>67920.25082832063</v>
       </c>
       <c r="AS137">
-        <v>1159228.14021092</v>
+        <v>69813.45942446718</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -17868,112 +17868,112 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <v>10126414.925128</v>
+        <v>2953.051104211449</v>
       </c>
       <c r="K138">
-        <v>10458548.9226532</v>
+        <v>3049.907560853785</v>
       </c>
       <c r="L138">
-        <v>12887116.7305903</v>
+        <v>3758.123143555713</v>
       </c>
       <c r="M138">
-        <v>14085169.4704308</v>
+        <v>4107.497625289664</v>
       </c>
       <c r="N138">
-        <v>13757737.7285732</v>
+        <v>4012.012433936591</v>
       </c>
       <c r="O138">
-        <v>18462385.4224779</v>
+        <v>5383.975282598504</v>
       </c>
       <c r="P138">
-        <v>18462390</v>
+        <v>5383.976617489163</v>
       </c>
       <c r="Q138">
-        <v>20589851.0858474</v>
+        <v>6004.383874665536</v>
       </c>
       <c r="R138">
-        <v>22962464.1087838</v>
+        <v>6696.282000414145</v>
       </c>
       <c r="S138">
-        <v>25608478.4561464</v>
+        <v>7467.909041969496</v>
       </c>
       <c r="T138">
-        <v>28559398.7532051</v>
+        <v>8328.452334546362</v>
       </c>
       <c r="U138">
-        <v>31850359.9712619</v>
+        <v>9288.157889844537</v>
       </c>
       <c r="V138">
-        <v>35520545.7602681</v>
+        <v>10358.45238962763</v>
       </c>
       <c r="W138">
-        <v>39613654.9868109</v>
+        <v>11552.07923688498</v>
       </c>
       <c r="X138">
-        <v>44178422.0322813</v>
+        <v>12883.2502844632</v>
       </c>
       <c r="Y138">
-        <v>49269197.0461241</v>
+        <v>14367.81504771583</v>
       </c>
       <c r="Z138">
-        <v>54946593.0629223</v>
+        <v>16023.44941589176</v>
       </c>
       <c r="AA138">
-        <v>61278207.6881824</v>
+        <v>17869.86610914506</v>
       </c>
       <c r="AB138">
-        <v>68339427.94553161</v>
+        <v>19929.04938696061</v>
       </c>
       <c r="AC138">
-        <v>76214327.8681953</v>
+        <v>22225.51680253836</v>
       </c>
       <c r="AD138">
-        <v>84996669.5218814</v>
+        <v>24786.61111970136</v>
       </c>
       <c r="AE138">
-        <v>94791019.3776926</v>
+        <v>27642.8258680192</v>
       </c>
       <c r="AF138">
-        <v>105713993.327102</v>
+        <v>30828.16841235196</v>
       </c>
       <c r="AG138">
-        <v>117895645.162696</v>
+        <v>34380.56485968256</v>
       </c>
       <c r="AH138">
-        <v>131481015.056545</v>
+        <v>38342.31162423602</v>
       </c>
       <c r="AI138">
-        <v>146631856.473095</v>
+        <v>42760.57902742659</v>
       </c>
       <c r="AJ138">
-        <v>163528562.077953</v>
+        <v>47687.97292871205</v>
       </c>
       <c r="AK138">
-        <v>182372311.573301</v>
+        <v>53183.16107438424</v>
       </c>
       <c r="AL138">
-        <v>203387467.033034</v>
+        <v>59311.57162188661</v>
       </c>
       <c r="AM138">
-        <v>226824244.257535</v>
+        <v>66146.17215659615</v>
       </c>
       <c r="AN138">
-        <v>252961691.954428</v>
+        <v>73768.33847639101</v>
       </c>
       <c r="AO138">
-        <v>282111014.216776</v>
+        <v>82268.823488144</v>
       </c>
       <c r="AP138">
-        <v>314619275.85761</v>
+        <v>91748.83775224902</v>
       </c>
       <c r="AQ138">
-        <v>350873534.718166</v>
+        <v>102321.2545406298</v>
       </c>
       <c r="AR138">
-        <v>391305450.150924</v>
+        <v>114111.9537561847</v>
       </c>
       <c r="AS138">
-        <v>436396422.54811</v>
+        <v>127261.3207149749</v>
       </c>
     </row>
     <row r="139" spans="1:45">
@@ -17990,112 +17990,112 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>87825.3848643284</v>
+        <v>60564.60026576775</v>
       </c>
       <c r="K139">
-        <v>91141.80822258419</v>
+        <v>62851.61392719491</v>
       </c>
       <c r="L139">
-        <v>94219.2851822667</v>
+        <v>64973.84956758758</v>
       </c>
       <c r="M139">
-        <v>88192.6239747956</v>
+        <v>60817.84925479023</v>
       </c>
       <c r="N139">
-        <v>95512.36757934091</v>
+        <v>65865.56235211428</v>
       </c>
       <c r="O139">
-        <v>89727.6112097544</v>
+        <v>61876.38020733827</v>
       </c>
       <c r="P139">
-        <v>89727.61</v>
+        <v>61876.37937308868</v>
       </c>
       <c r="Q139">
-        <v>92460.452790531</v>
+        <v>63760.95444729277</v>
       </c>
       <c r="R139">
-        <v>95276.5300472175</v>
+        <v>65702.92821298943</v>
       </c>
       <c r="S139">
-        <v>98178.3768505186</v>
+        <v>67704.04886786526</v>
       </c>
       <c r="T139">
-        <v>101168.605492093</v>
+        <v>69766.11785463906</v>
       </c>
       <c r="U139">
-        <v>104249.907826426</v>
+        <v>71890.99148274942</v>
       </c>
       <c r="V139">
-        <v>107425.057694086</v>
+        <v>74080.58259943851</v>
       </c>
       <c r="W139">
-        <v>110696.913418781</v>
+        <v>76336.86231172817</v>
       </c>
       <c r="X139">
-        <v>114068.420380468</v>
+        <v>78661.8617608426</v>
       </c>
       <c r="Y139">
-        <v>117542.613666838</v>
+        <v>81057.6739506788</v>
       </c>
       <c r="Z139">
-        <v>121122.62080555</v>
+        <v>83526.45563196184</v>
       </c>
       <c r="AA139">
-        <v>124811.664579687</v>
+        <v>86070.42924379026</v>
       </c>
       <c r="AB139">
-        <v>128613.065928957</v>
+        <v>88691.88491431132</v>
       </c>
       <c r="AC139">
-        <v>132530.246939261</v>
+        <v>91393.18252233442</v>
       </c>
       <c r="AD139">
-        <v>136566.733923315</v>
+        <v>94176.75382173558</v>
       </c>
       <c r="AE139">
-        <v>140726.160595091</v>
+        <v>97045.10463055968</v>
       </c>
       <c r="AF139">
-        <v>145012.271340952</v>
+        <v>100000.8170868033</v>
       </c>
       <c r="AG139">
-        <v>149428.92459041</v>
+        <v>103046.5519728974</v>
       </c>
       <c r="AH139">
-        <v>153980.096289553</v>
+        <v>106185.0511109914</v>
       </c>
       <c r="AI139">
-        <v>158669.883480253</v>
+        <v>109419.1398311836</v>
       </c>
       <c r="AJ139">
-        <v>163502.5079884</v>
+        <v>112751.7295149364</v>
       </c>
       <c r="AK139">
-        <v>168482.320224453</v>
+        <v>116185.8202159454</v>
       </c>
       <c r="AL139">
-        <v>173613.803099761</v>
+        <v>119724.5033608443</v>
       </c>
       <c r="AM139">
-        <v>178901.576062151</v>
+        <v>123370.9645321561</v>
       </c>
       <c r="AN139">
-        <v>184350.399254434</v>
+        <v>127128.4863360088</v>
       </c>
       <c r="AO139">
-        <v>189965.177799566</v>
+        <v>131000.4513571931</v>
       </c>
       <c r="AP139">
-        <v>195750.966216325</v>
+        <v>134990.3452042241</v>
       </c>
       <c r="AQ139">
-        <v>201712.972969472</v>
+        <v>139101.7596471435</v>
       </c>
       <c r="AR139">
-        <v>207856.565158501</v>
+        <v>143338.3958508929</v>
       </c>
       <c r="AS139">
-        <v>214187.27334919</v>
+        <v>147704.0677071631</v>
       </c>
     </row>
     <row r="140" spans="1:45">
@@ -18112,112 +18112,112 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>44051.5384918949</v>
+        <v>29009.54973856493</v>
       </c>
       <c r="K140">
-        <v>44299.1266111085</v>
+        <v>29172.59557316901</v>
       </c>
       <c r="L140">
-        <v>47646.3884691893</v>
+        <v>31376.8899675149</v>
       </c>
       <c r="M140">
-        <v>51688.9446331502</v>
+        <v>34039.06109987939</v>
       </c>
       <c r="N140">
-        <v>52911.5251364087</v>
+        <v>34844.17508983012</v>
       </c>
       <c r="O140">
-        <v>48894.5784226057</v>
+        <v>32198.8687173257</v>
       </c>
       <c r="P140">
-        <v>48894.58</v>
+        <v>32198.86975609756</v>
       </c>
       <c r="Q140">
-        <v>50823.3661358843</v>
+        <v>33469.04599192381</v>
       </c>
       <c r="R140">
-        <v>52828.2387410252</v>
+        <v>34789.32795140683</v>
       </c>
       <c r="S140">
-        <v>54912.1992631705</v>
+        <v>36161.69219769764</v>
       </c>
       <c r="T140">
-        <v>57078.3675507337</v>
+        <v>37588.19326511731</v>
       </c>
       <c r="U140">
-        <v>59329.9865234453</v>
+        <v>39070.96673495178</v>
       </c>
       <c r="V140">
-        <v>61670.4270272522</v>
+        <v>40612.23243258071</v>
       </c>
       <c r="W140">
-        <v>64103.1928807318</v>
+        <v>42214.29775072582</v>
       </c>
       <c r="X140">
-        <v>66631.9261205771</v>
+        <v>43879.56110379467</v>
       </c>
       <c r="Y140">
-        <v>69260.4124540038</v>
+        <v>45610.51551849031</v>
       </c>
       <c r="Z140">
-        <v>71992.5869262442</v>
+        <v>47409.75236606325</v>
       </c>
       <c r="AA140">
-        <v>74832.5398116108</v>
+        <v>49279.96524179247</v>
       </c>
       <c r="AB140">
-        <v>77784.5227369503</v>
+        <v>51223.95399750385</v>
       </c>
       <c r="AC140">
-        <v>80852.9550466543</v>
+        <v>53244.62893316258</v>
       </c>
       <c r="AD140">
-        <v>84042.43041875619</v>
+        <v>55345.01515381505</v>
       </c>
       <c r="AE140">
-        <v>87357.7237420186</v>
+        <v>57528.25709840249</v>
       </c>
       <c r="AF140">
-        <v>90803.7982643076</v>
+        <v>59797.62324722695</v>
       </c>
       <c r="AG140">
-        <v>94385.8130229544</v>
+        <v>62156.51101511631</v>
       </c>
       <c r="AH140">
-        <v>98109.1305682292</v>
+        <v>64608.45183761435</v>
       </c>
       <c r="AI140">
-        <v>101979.32499149</v>
+        <v>67157.11645781048</v>
       </c>
       <c r="AJ140">
-        <v>106002.190270022</v>
+        <v>69806.32042172179</v>
       </c>
       <c r="AK140">
-        <v>110183.748941069</v>
+        <v>72560.02979046006</v>
       </c>
       <c r="AL140">
-        <v>114530.261118028</v>
+        <v>75422.36707772574</v>
       </c>
       <c r="AM140">
-        <v>119048.233862321</v>
+        <v>78397.61742152846</v>
       </c>
       <c r="AN140">
-        <v>123744.430924964</v>
+        <v>81490.23499936653</v>
       </c>
       <c r="AO140">
-        <v>128625.882872419</v>
+        <v>84704.84969647104</v>
       </c>
       <c r="AP140">
-        <v>133699.897611889</v>
+        <v>88046.27403709762</v>
       </c>
       <c r="AQ140">
-        <v>138974.071331818</v>
+        <v>91519.51038924599</v>
       </c>
       <c r="AR140">
-        <v>144456.299873963</v>
+        <v>95129.75845358538</v>
       </c>
       <c r="AS140">
-        <v>150154.790554076</v>
+        <v>98882.42304780614</v>
       </c>
     </row>
     <row r="141" spans="1:45">
@@ -18966,112 +18966,112 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <v>2014.49043866758</v>
+        <v>29008.66231681315</v>
       </c>
       <c r="K147">
-        <v>2001.72028242913</v>
+        <v>28824.77206697947</v>
       </c>
       <c r="L147">
-        <v>2221.45055269024</v>
+        <v>31988.88795873945</v>
       </c>
       <c r="M147">
-        <v>2311.19371200343</v>
+        <v>33281.18945284939</v>
       </c>
       <c r="N147">
-        <v>3031.47223737611</v>
+        <v>43653.20021821598</v>
       </c>
       <c r="O147">
-        <v>3162.31392598557</v>
+        <v>45537.32053419221</v>
       </c>
       <c r="P147">
-        <v>3162.314</v>
+        <v>45537.3216</v>
       </c>
       <c r="Q147">
-        <v>3523.85874122401</v>
+        <v>50743.56587362575</v>
       </c>
       <c r="R147">
-        <v>3926.73859335311</v>
+        <v>56545.03574428478</v>
       </c>
       <c r="S147">
-        <v>4375.67936539162</v>
+        <v>63009.78286163933</v>
       </c>
       <c r="T147">
-        <v>4875.94716417432</v>
+        <v>70213.63916411021</v>
       </c>
       <c r="U147">
-        <v>5433.41016617012</v>
+        <v>78241.10639284973</v>
       </c>
       <c r="V147">
-        <v>6054.60745160473</v>
+        <v>87186.34730310812</v>
       </c>
       <c r="W147">
-        <v>6746.82570833173</v>
+        <v>97154.29019997692</v>
       </c>
       <c r="X147">
-        <v>7518.18470519361</v>
+        <v>108261.859754788</v>
       </c>
       <c r="Y147">
-        <v>8377.732537481461</v>
+        <v>120639.348539733</v>
       </c>
       <c r="Z147">
-        <v>9335.551761729181</v>
+        <v>134431.9453689002</v>
       </c>
       <c r="AA147">
-        <v>10402.8776648108</v>
+        <v>149801.4383732755</v>
       </c>
       <c r="AB147">
-        <v>11592.2300546459</v>
+        <v>166928.112786901</v>
       </c>
       <c r="AC147">
-        <v>12917.5601184271</v>
+        <v>186012.8657053502</v>
       </c>
       <c r="AD147">
-        <v>14394.4140710271</v>
+        <v>207279.5626227903</v>
       </c>
       <c r="AE147">
-        <v>16040.1155131928</v>
+        <v>230977.6633899763</v>
       </c>
       <c r="AF147">
-        <v>17873.9686386005</v>
+        <v>257385.1483958472</v>
       </c>
       <c r="AG147">
-        <v>19917.4846734056</v>
+        <v>286811.7792970407</v>
       </c>
       <c r="AH147">
-        <v>22194.6342044388</v>
+        <v>319602.7325439187</v>
       </c>
       <c r="AI147">
-        <v>24732.1283558751</v>
+        <v>356142.6483246014</v>
       </c>
       <c r="AJ147">
-        <v>27559.7321126001</v>
+        <v>396860.1424214414</v>
       </c>
       <c r="AK147">
-        <v>30710.6134655754</v>
+        <v>442232.8339042857</v>
       </c>
       <c r="AL147">
-        <v>34221.7324747067</v>
+        <v>492792.9476357765</v>
       </c>
       <c r="AM147">
-        <v>38134.2748129454</v>
+        <v>549133.5573064138</v>
       </c>
       <c r="AN147">
-        <v>42494.13487713</v>
+        <v>611915.5422306721</v>
       </c>
       <c r="AO147">
-        <v>47352.4541324885</v>
+        <v>681875.3395078344</v>
       </c>
       <c r="AP147">
-        <v>52766.2210056239</v>
+        <v>759833.5824809842</v>
       </c>
       <c r="AQ147">
-        <v>58798.9393627659</v>
+        <v>846704.726823829</v>
       </c>
       <c r="AR147">
-        <v>65521.3734145892</v>
+        <v>943507.7771700845</v>
       </c>
       <c r="AS147">
-        <v>73012.3777853819</v>
+        <v>1051378.2401095</v>
       </c>
     </row>
     <row r="148" spans="1:45">
@@ -19210,112 +19210,112 @@
         <v>1</v>
       </c>
       <c r="J149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="K149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="L149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="M149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="N149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="O149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="P149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="Q149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="R149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="S149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="T149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="U149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="V149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="W149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="X149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="Y149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="Z149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AA149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AB149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AC149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AD149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AE149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AF149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AG149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AH149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AI149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AJ149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AK149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AL149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AM149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AN149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AO149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AP149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AQ149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AR149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
       <c r="AS149">
-        <v>1424850.75</v>
+        <v>60537.70025906736</v>
       </c>
     </row>
     <row r="150" spans="1:45">
@@ -24157,76 +24157,76 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X2">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y2">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z2">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB2">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC2">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD2">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE2">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF2">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG2">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH2">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI2">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ2">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK2">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL2">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM2">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN2">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO2">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP2">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ2">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR2">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS2">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -24282,76 +24282,76 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X3">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y3">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z3">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB3">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC3">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD3">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE3">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF3">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG3">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH3">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI3">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ3">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK3">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL3">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM3">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN3">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO3">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP3">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ3">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR3">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS3">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -24407,76 +24407,76 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X4">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y4">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z4">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB4">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC4">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD4">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE4">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF4">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG4">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH4">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI4">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ4">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK4">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL4">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM4">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN4">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO4">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP4">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ4">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR4">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS4">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -24532,76 +24532,76 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X5">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y5">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z5">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB5">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC5">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD5">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE5">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF5">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG5">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH5">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI5">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ5">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK5">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL5">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM5">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN5">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO5">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP5">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ5">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR5">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS5">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -24657,76 +24657,76 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X6">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y6">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z6">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB6">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC6">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD6">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE6">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF6">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG6">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH6">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI6">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ6">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK6">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL6">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM6">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN6">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO6">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP6">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ6">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR6">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS6">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -24782,76 +24782,76 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X7">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y7">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z7">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB7">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC7">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD7">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE7">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF7">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG7">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH7">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI7">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ7">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK7">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL7">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM7">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN7">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO7">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP7">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ7">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR7">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS7">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -24907,76 +24907,76 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X8">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y8">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z8">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB8">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC8">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD8">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE8">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF8">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG8">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH8">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI8">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ8">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK8">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL8">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM8">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN8">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO8">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP8">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ8">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR8">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS8">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -25032,76 +25032,76 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X9">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y9">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z9">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB9">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC9">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD9">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE9">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF9">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG9">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH9">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI9">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ9">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK9">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL9">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM9">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN9">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO9">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP9">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ9">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR9">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS9">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -25157,76 +25157,76 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X10">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y10">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z10">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB10">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC10">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD10">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE10">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF10">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG10">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH10">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI10">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ10">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK10">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL10">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM10">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN10">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO10">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP10">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ10">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR10">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS10">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -25282,76 +25282,76 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X11">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y11">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z11">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB11">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC11">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD11">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE11">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF11">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG11">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH11">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI11">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ11">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK11">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL11">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM11">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN11">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO11">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP11">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ11">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR11">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS11">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -25407,76 +25407,76 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X12">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y12">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z12">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB12">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC12">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD12">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE12">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF12">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG12">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH12">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI12">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ12">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK12">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL12">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM12">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN12">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO12">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP12">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ12">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR12">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS12">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -25532,76 +25532,76 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X13">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y13">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z13">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB13">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC13">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD13">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE13">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF13">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG13">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH13">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI13">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ13">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK13">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL13">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM13">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN13">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO13">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP13">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ13">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR13">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS13">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -25657,76 +25657,76 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X14">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y14">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z14">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB14">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC14">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD14">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE14">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF14">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG14">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH14">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI14">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ14">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK14">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL14">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM14">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN14">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO14">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP14">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ14">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR14">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS14">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -25782,76 +25782,76 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X15">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y15">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z15">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB15">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC15">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD15">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE15">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF15">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG15">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH15">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI15">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ15">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK15">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL15">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM15">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN15">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO15">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP15">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ15">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR15">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS15">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -25907,76 +25907,76 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X16">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y16">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z16">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB16">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC16">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD16">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE16">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF16">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG16">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH16">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI16">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ16">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK16">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL16">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM16">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN16">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO16">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP16">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ16">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR16">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS16">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -26032,76 +26032,76 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X17">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y17">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z17">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB17">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC17">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD17">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE17">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF17">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG17">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH17">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI17">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ17">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK17">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL17">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM17">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN17">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO17">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP17">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ17">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR17">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS17">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -26157,76 +26157,76 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X18">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y18">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z18">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB18">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC18">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD18">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE18">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF18">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG18">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH18">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI18">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ18">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK18">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL18">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM18">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN18">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO18">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP18">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ18">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR18">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS18">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -26282,76 +26282,76 @@
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X19">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y19">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z19">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB19">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC19">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD19">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE19">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF19">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG19">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH19">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI19">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ19">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK19">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL19">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM19">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN19">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO19">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP19">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ19">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR19">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS19">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -26407,76 +26407,76 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X20">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y20">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z20">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB20">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC20">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD20">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE20">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF20">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG20">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH20">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI20">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ20">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK20">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL20">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM20">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN20">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO20">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP20">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ20">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR20">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS20">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -26532,76 +26532,76 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.975</v>
+        <v>0.9999986956521739</v>
       </c>
       <c r="X21">
-        <v>0.9625</v>
+        <v>0.9999973913043478</v>
       </c>
       <c r="Y21">
-        <v>0.9500000000000001</v>
+        <v>0.9999960869565216</v>
       </c>
       <c r="Z21">
-        <v>0.9375</v>
+        <v>0.9999947826086957</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.9999934782608696</v>
       </c>
       <c r="AB21">
-        <v>0.9124999999999999</v>
+        <v>0.9999921739130434</v>
       </c>
       <c r="AC21">
-        <v>0.9</v>
+        <v>0.9999908695652173</v>
       </c>
       <c r="AD21">
-        <v>0.8875</v>
+        <v>0.9999895652173914</v>
       </c>
       <c r="AE21">
-        <v>0.875</v>
+        <v>0.9999882608695653</v>
       </c>
       <c r="AF21">
-        <v>0.8625</v>
+        <v>0.9999869565217392</v>
       </c>
       <c r="AG21">
-        <v>0.85</v>
+        <v>0.999985652173913</v>
       </c>
       <c r="AH21">
-        <v>0.8374999999999999</v>
+        <v>0.9999843478260869</v>
       </c>
       <c r="AI21">
-        <v>0.825</v>
+        <v>0.9999830434782608</v>
       </c>
       <c r="AJ21">
-        <v>0.8125</v>
+        <v>0.9999817391304348</v>
       </c>
       <c r="AK21">
-        <v>0.8</v>
+        <v>0.9999804347826087</v>
       </c>
       <c r="AL21">
-        <v>0.7875</v>
+        <v>0.9999791304347826</v>
       </c>
       <c r="AM21">
-        <v>0.7749999999999999</v>
+        <v>0.9999778260869565</v>
       </c>
       <c r="AN21">
-        <v>0.7625</v>
+        <v>0.9999765217391304</v>
       </c>
       <c r="AO21">
-        <v>0.75</v>
+        <v>0.9999752173913043</v>
       </c>
       <c r="AP21">
-        <v>0.7374999999999999</v>
+        <v>0.9999739130434783</v>
       </c>
       <c r="AQ21">
-        <v>0.725</v>
+        <v>0.9999726086956522</v>
       </c>
       <c r="AR21">
-        <v>0.7124999999999999</v>
+        <v>0.9999713043478261</v>
       </c>
       <c r="AS21">
-        <v>0.7</v>
+        <v>0.99997</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -26657,76 +26657,76 @@
         <v>0.365103474841442</v>
       </c>
       <c r="V22">
-        <v>0.351412094534888</v>
+        <v>0.365103474841442</v>
       </c>
       <c r="W22">
-        <v>0.3377207142283338</v>
+        <v>0.3524042235426093</v>
       </c>
       <c r="X22">
-        <v>0.3240293339217798</v>
+        <v>0.3397049722437765</v>
       </c>
       <c r="Y22">
-        <v>0.3103379536152257</v>
+        <v>0.3270057209449437</v>
       </c>
       <c r="Z22">
-        <v>0.2966465733086717</v>
+        <v>0.3143064696461109</v>
       </c>
       <c r="AA22">
-        <v>0.2829551930021175</v>
+        <v>0.3016072183472782</v>
       </c>
       <c r="AB22">
-        <v>0.2692638126955635</v>
+        <v>0.2889079670484454</v>
       </c>
       <c r="AC22">
-        <v>0.2555724323890095</v>
+        <v>0.2762087157496126</v>
       </c>
       <c r="AD22">
-        <v>0.2418810520824554</v>
+        <v>0.2635094644507799</v>
       </c>
       <c r="AE22">
-        <v>0.2281896717759012</v>
+        <v>0.2508102131519471</v>
       </c>
       <c r="AF22">
-        <v>0.2144982914693472</v>
+        <v>0.2381109618531144</v>
       </c>
       <c r="AG22">
-        <v>0.2008069111627931</v>
+        <v>0.2254117105542816</v>
       </c>
       <c r="AH22">
-        <v>0.1871155308562391</v>
+        <v>0.2127124592554488</v>
       </c>
       <c r="AI22">
-        <v>0.173424150549685</v>
+        <v>0.2000132079566161</v>
       </c>
       <c r="AJ22">
-        <v>0.1597327702431309</v>
+        <v>0.1873139566577833</v>
       </c>
       <c r="AK22">
-        <v>0.1460413899365768</v>
+        <v>0.1746147053589505</v>
       </c>
       <c r="AL22">
-        <v>0.1323500096300227</v>
+        <v>0.1619154540601178</v>
       </c>
       <c r="AM22">
-        <v>0.1186586293234687</v>
+        <v>0.149216202761285</v>
       </c>
       <c r="AN22">
-        <v>0.1049672490169146</v>
+        <v>0.1365169514624522</v>
       </c>
       <c r="AO22">
-        <v>0.09127586871036049</v>
+        <v>0.1238177001636195</v>
       </c>
       <c r="AP22">
-        <v>0.07758448840380643</v>
+        <v>0.1111184488647867</v>
       </c>
       <c r="AQ22">
-        <v>0.06389310809725236</v>
+        <v>0.09841919756595394</v>
       </c>
       <c r="AR22">
-        <v>0.05020172779069827</v>
+        <v>0.08571994626712116</v>
       </c>
       <c r="AS22">
-        <v>0.0365103474841442</v>
+        <v>0.0730206949682884</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -26782,76 +26782,76 @@
         <v>1.11224154792243</v>
       </c>
       <c r="V23">
-        <v>1.070532489875339</v>
+        <v>1.11224154792243</v>
       </c>
       <c r="W23">
-        <v>1.028823431828248</v>
+        <v>1.073554885385998</v>
       </c>
       <c r="X23">
-        <v>0.9871143737811565</v>
+        <v>1.034868222849565</v>
       </c>
       <c r="Y23">
-        <v>0.9454053157340654</v>
+        <v>0.9961815603131328</v>
       </c>
       <c r="Z23">
-        <v>0.9036962576869743</v>
+        <v>0.9574948977767006</v>
       </c>
       <c r="AA23">
-        <v>0.8619871996398831</v>
+        <v>0.9188082352402682</v>
       </c>
       <c r="AB23">
-        <v>0.820278141592792</v>
+        <v>0.8801215727038358</v>
       </c>
       <c r="AC23">
-        <v>0.7785690835457011</v>
+        <v>0.8414349101674035</v>
       </c>
       <c r="AD23">
-        <v>0.7368600254986098</v>
+        <v>0.8027482476309711</v>
       </c>
       <c r="AE23">
-        <v>0.6951509674515186</v>
+        <v>0.7640615850945389</v>
       </c>
       <c r="AF23">
-        <v>0.6534419094044277</v>
+        <v>0.7253749225581065</v>
       </c>
       <c r="AG23">
-        <v>0.6117328513573365</v>
+        <v>0.6866882600216742</v>
       </c>
       <c r="AH23">
-        <v>0.5700237933102453</v>
+        <v>0.6480015974852418</v>
       </c>
       <c r="AI23">
-        <v>0.5283147352631542</v>
+        <v>0.6093149349488095</v>
       </c>
       <c r="AJ23">
-        <v>0.4866056772160631</v>
+        <v>0.570628272412377</v>
       </c>
       <c r="AK23">
-        <v>0.4448966191689721</v>
+        <v>0.5319416098759447</v>
       </c>
       <c r="AL23">
-        <v>0.4031875611218808</v>
+        <v>0.4932549473395125</v>
       </c>
       <c r="AM23">
-        <v>0.3614785030747897</v>
+        <v>0.4545682848030801</v>
       </c>
       <c r="AN23">
-        <v>0.3197694450276987</v>
+        <v>0.4158816222666477</v>
       </c>
       <c r="AO23">
-        <v>0.2780603869806075</v>
+        <v>0.3771949597302153</v>
       </c>
       <c r="AP23">
-        <v>0.2363513289335163</v>
+        <v>0.3385082971937831</v>
       </c>
       <c r="AQ23">
-        <v>0.1946422708864253</v>
+        <v>0.2998216346573507</v>
       </c>
       <c r="AR23">
-        <v>0.1529332128393341</v>
+        <v>0.2611349721209184</v>
       </c>
       <c r="AS23">
-        <v>0.111224154792243</v>
+        <v>0.222448309584486</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -26907,76 +26907,76 @@
         <v>1.11224154792243</v>
       </c>
       <c r="V24">
-        <v>1.070532489875339</v>
+        <v>1.11224154792243</v>
       </c>
       <c r="W24">
-        <v>1.028823431828248</v>
+        <v>1.073554885385998</v>
       </c>
       <c r="X24">
-        <v>0.9871143737811565</v>
+        <v>1.034868222849565</v>
       </c>
       <c r="Y24">
-        <v>0.9454053157340654</v>
+        <v>0.9961815603131328</v>
       </c>
       <c r="Z24">
-        <v>0.9036962576869743</v>
+        <v>0.9574948977767006</v>
       </c>
       <c r="AA24">
-        <v>0.8619871996398831</v>
+        <v>0.9188082352402682</v>
       </c>
       <c r="AB24">
-        <v>0.820278141592792</v>
+        <v>0.8801215727038358</v>
       </c>
       <c r="AC24">
-        <v>0.7785690835457011</v>
+        <v>0.8414349101674035</v>
       </c>
       <c r="AD24">
-        <v>0.7368600254986098</v>
+        <v>0.8027482476309711</v>
       </c>
       <c r="AE24">
-        <v>0.6951509674515186</v>
+        <v>0.7640615850945389</v>
       </c>
       <c r="AF24">
-        <v>0.6534419094044277</v>
+        <v>0.7253749225581065</v>
       </c>
       <c r="AG24">
-        <v>0.6117328513573365</v>
+        <v>0.6866882600216742</v>
       </c>
       <c r="AH24">
-        <v>0.5700237933102453</v>
+        <v>0.6480015974852418</v>
       </c>
       <c r="AI24">
-        <v>0.5283147352631542</v>
+        <v>0.6093149349488095</v>
       </c>
       <c r="AJ24">
-        <v>0.4866056772160631</v>
+        <v>0.570628272412377</v>
       </c>
       <c r="AK24">
-        <v>0.4448966191689721</v>
+        <v>0.5319416098759447</v>
       </c>
       <c r="AL24">
-        <v>0.4031875611218808</v>
+        <v>0.4932549473395125</v>
       </c>
       <c r="AM24">
-        <v>0.3614785030747897</v>
+        <v>0.4545682848030801</v>
       </c>
       <c r="AN24">
-        <v>0.3197694450276987</v>
+        <v>0.4158816222666477</v>
       </c>
       <c r="AO24">
-        <v>0.2780603869806075</v>
+        <v>0.3771949597302153</v>
       </c>
       <c r="AP24">
-        <v>0.2363513289335163</v>
+        <v>0.3385082971937831</v>
       </c>
       <c r="AQ24">
-        <v>0.1946422708864253</v>
+        <v>0.2998216346573507</v>
       </c>
       <c r="AR24">
-        <v>0.1529332128393341</v>
+        <v>0.2611349721209184</v>
       </c>
       <c r="AS24">
-        <v>0.111224154792243</v>
+        <v>0.222448309584486</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -27032,76 +27032,76 @@
         <v>2E-06</v>
       </c>
       <c r="V25">
-        <v>1.925E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="W25">
-        <v>1.85E-06</v>
+        <v>1.930434782608696E-06</v>
       </c>
       <c r="X25">
-        <v>1.775E-06</v>
+        <v>1.860869565217391E-06</v>
       </c>
       <c r="Y25">
-        <v>1.7E-06</v>
+        <v>1.791304347826087E-06</v>
       </c>
       <c r="Z25">
-        <v>1.625E-06</v>
+        <v>1.721739130434782E-06</v>
       </c>
       <c r="AA25">
-        <v>1.55E-06</v>
+        <v>1.652173913043478E-06</v>
       </c>
       <c r="AB25">
-        <v>1.475E-06</v>
+        <v>1.582608695652174E-06</v>
       </c>
       <c r="AC25">
-        <v>1.4E-06</v>
+        <v>1.513043478260869E-06</v>
       </c>
       <c r="AD25">
-        <v>1.325E-06</v>
+        <v>1.443478260869565E-06</v>
       </c>
       <c r="AE25">
-        <v>1.25E-06</v>
+        <v>1.373913043478261E-06</v>
       </c>
       <c r="AF25">
-        <v>1.175E-06</v>
+        <v>1.304347826086956E-06</v>
       </c>
       <c r="AG25">
-        <v>1.1E-06</v>
+        <v>1.234782608695652E-06</v>
       </c>
       <c r="AH25">
-        <v>1.025E-06</v>
+        <v>1.165217391304348E-06</v>
       </c>
       <c r="AI25">
-        <v>9.499999999999999E-07</v>
+        <v>1.095652173913043E-06</v>
       </c>
       <c r="AJ25">
-        <v>8.75E-07</v>
+        <v>1.026086956521739E-06</v>
       </c>
       <c r="AK25">
-        <v>8E-07</v>
+        <v>9.565217391304347E-07</v>
       </c>
       <c r="AL25">
-        <v>7.249999999999998E-07</v>
+        <v>8.869565217391303E-07</v>
       </c>
       <c r="AM25">
-        <v>6.499999999999999E-07</v>
+        <v>8.173913043478263E-07</v>
       </c>
       <c r="AN25">
-        <v>5.75E-07</v>
+        <v>7.478260869565216E-07</v>
       </c>
       <c r="AO25">
-        <v>4.999999999999999E-07</v>
+        <v>6.782608695652173E-07</v>
       </c>
       <c r="AP25">
-        <v>4.25E-07</v>
+        <v>6.086956521739131E-07</v>
       </c>
       <c r="AQ25">
-        <v>3.5E-07</v>
+        <v>5.391304347826087E-07</v>
       </c>
       <c r="AR25">
-        <v>2.749999999999999E-07</v>
+        <v>4.695652173913043E-07</v>
       </c>
       <c r="AS25">
-        <v>2E-07</v>
+        <v>4E-07</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -27157,76 +27157,76 @@
         <v>6E-07</v>
       </c>
       <c r="V26">
-        <v>5.775E-07</v>
+        <v>6E-07</v>
       </c>
       <c r="W26">
-        <v>5.549999999999999E-07</v>
+        <v>5.791304347826086E-07</v>
       </c>
       <c r="X26">
-        <v>5.325E-07</v>
+        <v>5.582608695652174E-07</v>
       </c>
       <c r="Y26">
-        <v>5.1E-07</v>
+        <v>5.37391304347826E-07</v>
       </c>
       <c r="Z26">
-        <v>4.875E-07</v>
+        <v>5.165217391304348E-07</v>
       </c>
       <c r="AA26">
-        <v>4.65E-07</v>
+        <v>4.956521739130435E-07</v>
       </c>
       <c r="AB26">
-        <v>4.424999999999999E-07</v>
+        <v>4.747826086956521E-07</v>
       </c>
       <c r="AC26">
-        <v>4.200000000000001E-07</v>
+        <v>4.539130434782608E-07</v>
       </c>
       <c r="AD26">
-        <v>3.975E-07</v>
+        <v>4.330434782608696E-07</v>
       </c>
       <c r="AE26">
-        <v>3.749999999999999E-07</v>
+        <v>4.121739130434783E-07</v>
       </c>
       <c r="AF26">
-        <v>3.525E-07</v>
+        <v>3.913043478260869E-07</v>
       </c>
       <c r="AG26">
-        <v>3.3E-07</v>
+        <v>3.704347826086956E-07</v>
       </c>
       <c r="AH26">
-        <v>3.075E-07</v>
+        <v>3.495652173913043E-07</v>
       </c>
       <c r="AI26">
-        <v>2.85E-07</v>
+        <v>3.28695652173913E-07</v>
       </c>
       <c r="AJ26">
-        <v>2.625E-07</v>
+        <v>3.078260869565217E-07</v>
       </c>
       <c r="AK26">
-        <v>2.4E-07</v>
+        <v>2.869565217391304E-07</v>
       </c>
       <c r="AL26">
-        <v>2.175E-07</v>
+        <v>2.660869565217391E-07</v>
       </c>
       <c r="AM26">
-        <v>1.95E-07</v>
+        <v>2.452173913043478E-07</v>
       </c>
       <c r="AN26">
-        <v>1.725E-07</v>
+        <v>2.243478260869565E-07</v>
       </c>
       <c r="AO26">
-        <v>1.5E-07</v>
+        <v>2.034782608695652E-07</v>
       </c>
       <c r="AP26">
-        <v>1.275E-07</v>
+        <v>1.826086956521739E-07</v>
       </c>
       <c r="AQ26">
-        <v>1.05E-07</v>
+        <v>1.617391304347826E-07</v>
       </c>
       <c r="AR26">
-        <v>8.249999999999998E-08</v>
+        <v>1.408695652173913E-07</v>
       </c>
       <c r="AS26">
-        <v>5.999999999999999E-08</v>
+        <v>1.2E-07</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -27282,76 +27282,76 @@
         <v>1.66419636831042</v>
       </c>
       <c r="V27">
-        <v>1.601789004498779</v>
+        <v>1.66419636831042</v>
       </c>
       <c r="W27">
-        <v>1.539381640687138</v>
+        <v>1.606311277238753</v>
       </c>
       <c r="X27">
-        <v>1.476974276875498</v>
+        <v>1.548426186167086</v>
       </c>
       <c r="Y27">
-        <v>1.414566913063857</v>
+        <v>1.490541095095419</v>
       </c>
       <c r="Z27">
-        <v>1.352159549252216</v>
+        <v>1.432656004023753</v>
       </c>
       <c r="AA27">
-        <v>1.289752185440575</v>
+        <v>1.374770912952086</v>
       </c>
       <c r="AB27">
-        <v>1.227344821628935</v>
+        <v>1.316885821880419</v>
       </c>
       <c r="AC27">
-        <v>1.164937457817294</v>
+        <v>1.259000730808753</v>
       </c>
       <c r="AD27">
-        <v>1.102530094005653</v>
+        <v>1.201115639737086</v>
       </c>
       <c r="AE27">
-        <v>1.040122730194012</v>
+        <v>1.143230548665419</v>
       </c>
       <c r="AF27">
-        <v>0.9777153663823719</v>
+        <v>1.085345457593752</v>
       </c>
       <c r="AG27">
-        <v>0.915308002570731</v>
+        <v>1.027460366522085</v>
       </c>
       <c r="AH27">
-        <v>0.8529006387590903</v>
+        <v>0.9695752754504185</v>
       </c>
       <c r="AI27">
-        <v>0.7904932749474494</v>
+        <v>0.9116901843787518</v>
       </c>
       <c r="AJ27">
-        <v>0.7280859111358087</v>
+        <v>0.853805093307085</v>
       </c>
       <c r="AK27">
-        <v>0.6656785473241681</v>
+        <v>0.7959200022354183</v>
       </c>
       <c r="AL27">
-        <v>0.6032711835125272</v>
+        <v>0.7380349111637515</v>
       </c>
       <c r="AM27">
-        <v>0.5408638197008865</v>
+        <v>0.6801498200920848</v>
       </c>
       <c r="AN27">
-        <v>0.4784564558892458</v>
+        <v>0.6222647290204179</v>
       </c>
       <c r="AO27">
-        <v>0.4160490920776049</v>
+        <v>0.5643796379487511</v>
       </c>
       <c r="AP27">
-        <v>0.3536417282659642</v>
+        <v>0.5064945468770844</v>
       </c>
       <c r="AQ27">
-        <v>0.2912343644543235</v>
+        <v>0.4486094558054176</v>
       </c>
       <c r="AR27">
-        <v>0.2288270006426827</v>
+        <v>0.3907243647337507</v>
       </c>
       <c r="AS27">
-        <v>0.166419636831042</v>
+        <v>0.332839273662084</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -27407,76 +27407,76 @@
         <v>0.0011785773758761</v>
       </c>
       <c r="V28">
-        <v>0.001134380724280746</v>
+        <v>0.0011785773758761</v>
       </c>
       <c r="W28">
-        <v>0.001090184072685393</v>
+        <v>0.001137583380193453</v>
       </c>
       <c r="X28">
-        <v>0.001045987421090039</v>
+        <v>0.001096589384510806</v>
       </c>
       <c r="Y28">
-        <v>0.001001790769494685</v>
+        <v>0.001055595388828159</v>
       </c>
       <c r="Z28">
-        <v>0.0009575941178993312</v>
+        <v>0.001014601393145512</v>
       </c>
       <c r="AA28">
-        <v>0.0009133974663039776</v>
+        <v>0.0009736073974628653</v>
       </c>
       <c r="AB28">
-        <v>0.0008692008147086238</v>
+        <v>0.0009326134017802183</v>
       </c>
       <c r="AC28">
-        <v>0.0008250041631132701</v>
+        <v>0.0008916194060975713</v>
       </c>
       <c r="AD28">
-        <v>0.0007808075115179164</v>
+        <v>0.0008506254104149244</v>
       </c>
       <c r="AE28">
-        <v>0.0007366108599225625</v>
+        <v>0.0008096314147322775</v>
       </c>
       <c r="AF28">
-        <v>0.0006924142083272089</v>
+        <v>0.0007686374190496307</v>
       </c>
       <c r="AG28">
-        <v>0.000648217556731855</v>
+        <v>0.0007276434233669834</v>
       </c>
       <c r="AH28">
-        <v>0.0006040209051365013</v>
+        <v>0.0006866494276843366</v>
       </c>
       <c r="AI28">
-        <v>0.0005598242535411475</v>
+        <v>0.0006456554320016897</v>
       </c>
       <c r="AJ28">
-        <v>0.0005156276019457937</v>
+        <v>0.0006046614363190426</v>
       </c>
       <c r="AK28">
-        <v>0.0004714309503504401</v>
+        <v>0.0005636674406363957</v>
       </c>
       <c r="AL28">
-        <v>0.0004272342987550862</v>
+        <v>0.0005226734449537487</v>
       </c>
       <c r="AM28">
-        <v>0.0003830376471597325</v>
+        <v>0.0004816794492711018</v>
       </c>
       <c r="AN28">
-        <v>0.0003388409955643788</v>
+        <v>0.0004406854535884548</v>
       </c>
       <c r="AO28">
-        <v>0.000294644343969025</v>
+        <v>0.0003996914579058079</v>
       </c>
       <c r="AP28">
-        <v>0.0002504476923736713</v>
+        <v>0.0003586974622231609</v>
       </c>
       <c r="AQ28">
-        <v>0.0002062510407783176</v>
+        <v>0.000317703466540514</v>
       </c>
       <c r="AR28">
-        <v>0.0001620543891829637</v>
+        <v>0.0002767094708578669</v>
       </c>
       <c r="AS28">
-        <v>0.00011785773758761</v>
+        <v>0.00023571547517522</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -27532,76 +27532,76 @@
         <v>1.55494471322572</v>
       </c>
       <c r="V29">
-        <v>1.496634286479755</v>
+        <v>1.55494471322572</v>
       </c>
       <c r="W29">
-        <v>1.438323859733791</v>
+        <v>1.500859679722217</v>
       </c>
       <c r="X29">
-        <v>1.380013432987826</v>
+        <v>1.446774646218713</v>
       </c>
       <c r="Y29">
-        <v>1.321703006241862</v>
+        <v>1.39268961271521</v>
       </c>
       <c r="Z29">
-        <v>1.263392579495897</v>
+        <v>1.338604579211707</v>
       </c>
       <c r="AA29">
-        <v>1.205082152749933</v>
+        <v>1.284519545708203</v>
       </c>
       <c r="AB29">
-        <v>1.146771726003968</v>
+        <v>1.2304345122047</v>
       </c>
       <c r="AC29">
-        <v>1.088461299258004</v>
+        <v>1.176349478701197</v>
       </c>
       <c r="AD29">
-        <v>1.030150872512039</v>
+        <v>1.122264445197693</v>
       </c>
       <c r="AE29">
-        <v>0.9718404457660748</v>
+        <v>1.06817941169419</v>
       </c>
       <c r="AF29">
-        <v>0.9135300190201106</v>
+        <v>1.014094378190687</v>
       </c>
       <c r="AG29">
-        <v>0.8552195922741459</v>
+        <v>0.9600093446871836</v>
       </c>
       <c r="AH29">
-        <v>0.7969091655281815</v>
+        <v>0.9059243111836803</v>
       </c>
       <c r="AI29">
-        <v>0.7385987387822169</v>
+        <v>0.8518392776801771</v>
       </c>
       <c r="AJ29">
-        <v>0.6802883120362524</v>
+        <v>0.7977542441766736</v>
       </c>
       <c r="AK29">
-        <v>0.6219778852902881</v>
+        <v>0.7436692106731704</v>
       </c>
       <c r="AL29">
-        <v>0.5636674585443234</v>
+        <v>0.6895841771696671</v>
       </c>
       <c r="AM29">
-        <v>0.505357031798359</v>
+        <v>0.6354991436661639</v>
       </c>
       <c r="AN29">
-        <v>0.4470466050523946</v>
+        <v>0.5814141101626604</v>
       </c>
       <c r="AO29">
-        <v>0.3887361783064299</v>
+        <v>0.5273290766591572</v>
       </c>
       <c r="AP29">
-        <v>0.3304257515604655</v>
+        <v>0.4732440431556539</v>
       </c>
       <c r="AQ29">
-        <v>0.2721153248145011</v>
+        <v>0.4191590096521506</v>
       </c>
       <c r="AR29">
-        <v>0.2138048980685364</v>
+        <v>0.3650739761486472</v>
       </c>
       <c r="AS29">
-        <v>0.155494471322572</v>
+        <v>0.310988942645144</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -27657,76 +27657,76 @@
         <v>1.55494471322572</v>
       </c>
       <c r="V30">
-        <v>1.496634286479755</v>
+        <v>1.55494471322572</v>
       </c>
       <c r="W30">
-        <v>1.438323859733791</v>
+        <v>1.500859679722217</v>
       </c>
       <c r="X30">
-        <v>1.380013432987826</v>
+        <v>1.446774646218713</v>
       </c>
       <c r="Y30">
-        <v>1.321703006241862</v>
+        <v>1.39268961271521</v>
       </c>
       <c r="Z30">
-        <v>1.263392579495897</v>
+        <v>1.338604579211707</v>
       </c>
       <c r="AA30">
-        <v>1.205082152749933</v>
+        <v>1.284519545708203</v>
       </c>
       <c r="AB30">
-        <v>1.146771726003968</v>
+        <v>1.2304345122047</v>
       </c>
       <c r="AC30">
-        <v>1.088461299258004</v>
+        <v>1.176349478701197</v>
       </c>
       <c r="AD30">
-        <v>1.030150872512039</v>
+        <v>1.122264445197693</v>
       </c>
       <c r="AE30">
-        <v>0.9718404457660748</v>
+        <v>1.06817941169419</v>
       </c>
       <c r="AF30">
-        <v>0.9135300190201106</v>
+        <v>1.014094378190687</v>
       </c>
       <c r="AG30">
-        <v>0.8552195922741459</v>
+        <v>0.9600093446871836</v>
       </c>
       <c r="AH30">
-        <v>0.7969091655281815</v>
+        <v>0.9059243111836803</v>
       </c>
       <c r="AI30">
-        <v>0.7385987387822169</v>
+        <v>0.8518392776801771</v>
       </c>
       <c r="AJ30">
-        <v>0.6802883120362524</v>
+        <v>0.7977542441766736</v>
       </c>
       <c r="AK30">
-        <v>0.6219778852902881</v>
+        <v>0.7436692106731704</v>
       </c>
       <c r="AL30">
-        <v>0.5636674585443234</v>
+        <v>0.6895841771696671</v>
       </c>
       <c r="AM30">
-        <v>0.505357031798359</v>
+        <v>0.6354991436661639</v>
       </c>
       <c r="AN30">
-        <v>0.4470466050523946</v>
+        <v>0.5814141101626604</v>
       </c>
       <c r="AO30">
-        <v>0.3887361783064299</v>
+        <v>0.5273290766591572</v>
       </c>
       <c r="AP30">
-        <v>0.3304257515604655</v>
+        <v>0.4732440431556539</v>
       </c>
       <c r="AQ30">
-        <v>0.2721153248145011</v>
+        <v>0.4191590096521506</v>
       </c>
       <c r="AR30">
-        <v>0.2138048980685364</v>
+        <v>0.3650739761486472</v>
       </c>
       <c r="AS30">
-        <v>0.155494471322572</v>
+        <v>0.310988942645144</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -27782,76 +27782,76 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9249999999999999</v>
+        <v>0.9652173913043478</v>
       </c>
       <c r="X31">
-        <v>0.8875</v>
+        <v>0.9304347826086957</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>0.8956521739130434</v>
       </c>
       <c r="Z31">
-        <v>0.8125</v>
+        <v>0.8608695652173913</v>
       </c>
       <c r="AA31">
-        <v>0.775</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="AB31">
-        <v>0.7374999999999999</v>
+        <v>0.7913043478260869</v>
       </c>
       <c r="AC31">
-        <v>0.7000000000000001</v>
+        <v>0.7565217391304347</v>
       </c>
       <c r="AD31">
-        <v>0.6625</v>
+        <v>0.7217391304347827</v>
       </c>
       <c r="AE31">
-        <v>0.6249999999999999</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="AF31">
-        <v>0.5875000000000001</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="AG31">
-        <v>0.55</v>
+        <v>0.6173913043478261</v>
       </c>
       <c r="AH31">
-        <v>0.5125000000000001</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="AI31">
-        <v>0.475</v>
+        <v>0.5478260869565218</v>
       </c>
       <c r="AJ31">
-        <v>0.4375</v>
+        <v>0.5130434782608695</v>
       </c>
       <c r="AK31">
-        <v>0.4</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AL31">
-        <v>0.3625</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="AM31">
-        <v>0.325</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="AN31">
-        <v>0.2875</v>
+        <v>0.3739130434782608</v>
       </c>
       <c r="AO31">
-        <v>0.25</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="AP31">
-        <v>0.2125</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="AQ31">
-        <v>0.175</v>
+        <v>0.2695652173913044</v>
       </c>
       <c r="AR31">
-        <v>0.1375</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="AS31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -27907,76 +27907,76 @@
         <v>0.03741</v>
       </c>
       <c r="V32">
-        <v>0.036007125</v>
+        <v>0.03741</v>
       </c>
       <c r="W32">
-        <v>0.03460425</v>
+        <v>0.03610878260869565</v>
       </c>
       <c r="X32">
-        <v>0.033201375</v>
+        <v>0.0348075652173913</v>
       </c>
       <c r="Y32">
-        <v>0.0317985</v>
+        <v>0.03350634782608695</v>
       </c>
       <c r="Z32">
-        <v>0.030395625</v>
+        <v>0.03220513043478261</v>
       </c>
       <c r="AA32">
-        <v>0.02899275</v>
+        <v>0.03090391304347826</v>
       </c>
       <c r="AB32">
-        <v>0.027589875</v>
+        <v>0.02960269565217391</v>
       </c>
       <c r="AC32">
-        <v>0.026187</v>
+        <v>0.02830147826086956</v>
       </c>
       <c r="AD32">
-        <v>0.024784125</v>
+        <v>0.02700026086956522</v>
       </c>
       <c r="AE32">
-        <v>0.02338125</v>
+        <v>0.02569904347826087</v>
       </c>
       <c r="AF32">
-        <v>0.021978375</v>
+        <v>0.02439782608695652</v>
       </c>
       <c r="AG32">
-        <v>0.0205755</v>
+        <v>0.02309660869565217</v>
       </c>
       <c r="AH32">
-        <v>0.019172625</v>
+        <v>0.02179539130434783</v>
       </c>
       <c r="AI32">
-        <v>0.01776975</v>
+        <v>0.02049417391304348</v>
       </c>
       <c r="AJ32">
-        <v>0.016366875</v>
+        <v>0.01919295652173913</v>
       </c>
       <c r="AK32">
-        <v>0.014964</v>
+        <v>0.01789173913043478</v>
       </c>
       <c r="AL32">
-        <v>0.013561125</v>
+        <v>0.01659052173913043</v>
       </c>
       <c r="AM32">
-        <v>0.01215825</v>
+        <v>0.01528930434782609</v>
       </c>
       <c r="AN32">
-        <v>0.010755375</v>
+        <v>0.01398808695652174</v>
       </c>
       <c r="AO32">
-        <v>0.009352499999999998</v>
+        <v>0.01268686956521739</v>
       </c>
       <c r="AP32">
-        <v>0.007949625</v>
+        <v>0.01138565217391304</v>
       </c>
       <c r="AQ32">
-        <v>0.006546750000000001</v>
+        <v>0.0100844347826087</v>
       </c>
       <c r="AR32">
-        <v>0.005143874999999999</v>
+        <v>0.008783217391304346</v>
       </c>
       <c r="AS32">
-        <v>0.003741</v>
+        <v>0.007482</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -28032,76 +28032,76 @@
         <v>0.0007</v>
       </c>
       <c r="V33">
-        <v>0.0006737500000000001</v>
+        <v>0.0007</v>
       </c>
       <c r="W33">
-        <v>0.0006475000000000001</v>
+        <v>0.0006756521739130436</v>
       </c>
       <c r="X33">
-        <v>0.0006212499999999999</v>
+        <v>0.000651304347826087</v>
       </c>
       <c r="Y33">
-        <v>0.000595</v>
+        <v>0.0006269565217391304</v>
       </c>
       <c r="Z33">
-        <v>0.00056875</v>
+        <v>0.0006026086956521739</v>
       </c>
       <c r="AA33">
-        <v>0.0005425</v>
+        <v>0.0005782608695652175</v>
       </c>
       <c r="AB33">
-        <v>0.0005162499999999999</v>
+        <v>0.0005539130434782609</v>
       </c>
       <c r="AC33">
-        <v>0.0004900000000000001</v>
+        <v>0.0005295652173913044</v>
       </c>
       <c r="AD33">
-        <v>0.00046375</v>
+        <v>0.0005052173913043478</v>
       </c>
       <c r="AE33">
-        <v>0.0004375</v>
+        <v>0.0004808695652173913</v>
       </c>
       <c r="AF33">
-        <v>0.00041125</v>
+        <v>0.0004565217391304348</v>
       </c>
       <c r="AG33">
-        <v>0.000385</v>
+        <v>0.0004321739130434782</v>
       </c>
       <c r="AH33">
-        <v>0.00035875</v>
+        <v>0.0004078260869565218</v>
       </c>
       <c r="AI33">
-        <v>0.0003325</v>
+        <v>0.0003834782608695652</v>
       </c>
       <c r="AJ33">
-        <v>0.00030625</v>
+        <v>0.0003591304347826087</v>
       </c>
       <c r="AK33">
-        <v>0.00028</v>
+        <v>0.0003347826086956521</v>
       </c>
       <c r="AL33">
-        <v>0.00025375</v>
+        <v>0.0003104347826086957</v>
       </c>
       <c r="AM33">
-        <v>0.0002275</v>
+        <v>0.0002860869565217392</v>
       </c>
       <c r="AN33">
-        <v>0.00020125</v>
+        <v>0.0002617391304347826</v>
       </c>
       <c r="AO33">
-        <v>0.000175</v>
+        <v>0.0002373913043478261</v>
       </c>
       <c r="AP33">
-        <v>0.00014875</v>
+        <v>0.0002130434782608696</v>
       </c>
       <c r="AQ33">
-        <v>0.0001225000000000001</v>
+        <v>0.0001886956521739131</v>
       </c>
       <c r="AR33">
-        <v>9.624999999999998E-05</v>
+        <v>0.0001643478260869565</v>
       </c>
       <c r="AS33">
-        <v>7.000000000000001E-05</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -28157,76 +28157,76 @@
         <v>0.72</v>
       </c>
       <c r="V34">
-        <v>0.7108333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="W34">
-        <v>0.7016666666666665</v>
+        <v>0.72</v>
       </c>
       <c r="X34">
-        <v>0.6925</v>
+        <v>0.72</v>
       </c>
       <c r="Y34">
-        <v>0.6833333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="Z34">
-        <v>0.6741666666666666</v>
+        <v>0.72</v>
       </c>
       <c r="AA34">
-        <v>0.665</v>
+        <v>0.72</v>
       </c>
       <c r="AB34">
-        <v>0.6558333333333333</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="AC34">
-        <v>0.6466666666666667</v>
+        <v>0.72</v>
       </c>
       <c r="AD34">
-        <v>0.6375</v>
+        <v>0.72</v>
       </c>
       <c r="AE34">
-        <v>0.6283333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="AF34">
-        <v>0.6191666666666666</v>
+        <v>0.72</v>
       </c>
       <c r="AG34">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="AH34">
-        <v>0.6008333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="AI34">
-        <v>0.5916666666666667</v>
+        <v>0.72</v>
       </c>
       <c r="AJ34">
-        <v>0.5825</v>
+        <v>0.72</v>
       </c>
       <c r="AK34">
-        <v>0.5733333333333334</v>
+        <v>0.72</v>
       </c>
       <c r="AL34">
-        <v>0.5641666666666667</v>
+        <v>0.72</v>
       </c>
       <c r="AM34">
-        <v>0.5549999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="AN34">
-        <v>0.5458333333333334</v>
+        <v>0.72</v>
       </c>
       <c r="AO34">
-        <v>0.5366666666666666</v>
+        <v>0.72</v>
       </c>
       <c r="AP34">
-        <v>0.5275</v>
+        <v>0.72</v>
       </c>
       <c r="AQ34">
-        <v>0.5183333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="AR34">
-        <v>0.5091666666666667</v>
+        <v>0.72</v>
       </c>
       <c r="AS34">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -28282,73 +28282,73 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X35">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y35">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z35">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA35">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB35">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC35">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD35">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE35">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF35">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG35">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH35">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI35">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ35">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK35">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL35">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM35">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN35">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO35">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP35">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ35">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR35">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS35">
         <v>0.8</v>
@@ -28407,73 +28407,73 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X36">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y36">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z36">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA36">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB36">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC36">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD36">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE36">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF36">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG36">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH36">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI36">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ36">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK36">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL36">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM36">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN36">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO36">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP36">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ36">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR36">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS36">
         <v>0.8</v>
@@ -28532,73 +28532,73 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X37">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y37">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z37">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA37">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB37">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC37">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD37">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE37">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF37">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG37">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH37">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI37">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ37">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK37">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL37">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM37">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN37">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO37">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP37">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ37">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR37">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS37">
         <v>0.8</v>
@@ -28657,73 +28657,73 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X38">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y38">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z38">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA38">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB38">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC38">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD38">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE38">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF38">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG38">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH38">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI38">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ38">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK38">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL38">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM38">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN38">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO38">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP38">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ38">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR38">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS38">
         <v>0.8</v>
@@ -28782,7 +28782,7 @@
         <v>0.9</v>
       </c>
       <c r="W39">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X39">
         <v>0.9</v>
@@ -28803,10 +28803,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD39">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE39">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF39">
         <v>0.9000000000000001</v>
@@ -28824,10 +28824,10 @@
         <v>0.9</v>
       </c>
       <c r="AK39">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL39">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM39">
         <v>0.9</v>
@@ -28836,13 +28836,13 @@
         <v>0.9</v>
       </c>
       <c r="AO39">
+        <v>0.9</v>
+      </c>
+      <c r="AP39">
+        <v>0.9</v>
+      </c>
+      <c r="AQ39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP39">
-        <v>0.9</v>
-      </c>
-      <c r="AQ39">
-        <v>0.9</v>
       </c>
       <c r="AR39">
         <v>0.9</v>
@@ -28904,7 +28904,7 @@
         <v>0.9</v>
       </c>
       <c r="W40">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X40">
         <v>0.9</v>
@@ -28925,10 +28925,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD40">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE40">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF40">
         <v>0.9000000000000001</v>
@@ -28946,10 +28946,10 @@
         <v>0.9</v>
       </c>
       <c r="AK40">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL40">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM40">
         <v>0.9</v>
@@ -28958,13 +28958,13 @@
         <v>0.9</v>
       </c>
       <c r="AO40">
+        <v>0.9</v>
+      </c>
+      <c r="AP40">
+        <v>0.9</v>
+      </c>
+      <c r="AQ40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP40">
-        <v>0.9</v>
-      </c>
-      <c r="AQ40">
-        <v>0.9</v>
       </c>
       <c r="AR40">
         <v>0.9</v>
@@ -29026,7 +29026,7 @@
         <v>0.9</v>
       </c>
       <c r="W41">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X41">
         <v>0.9</v>
@@ -29047,10 +29047,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD41">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE41">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF41">
         <v>0.9000000000000001</v>
@@ -29068,10 +29068,10 @@
         <v>0.9</v>
       </c>
       <c r="AK41">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL41">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM41">
         <v>0.9</v>
@@ -29080,13 +29080,13 @@
         <v>0.9</v>
       </c>
       <c r="AO41">
+        <v>0.9</v>
+      </c>
+      <c r="AP41">
+        <v>0.9</v>
+      </c>
+      <c r="AQ41">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP41">
-        <v>0.9</v>
-      </c>
-      <c r="AQ41">
-        <v>0.9</v>
       </c>
       <c r="AR41">
         <v>0.9</v>
@@ -29148,7 +29148,7 @@
         <v>0.9</v>
       </c>
       <c r="W42">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X42">
         <v>0.9</v>
@@ -29169,10 +29169,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD42">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE42">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF42">
         <v>0.9000000000000001</v>
@@ -29190,10 +29190,10 @@
         <v>0.9</v>
       </c>
       <c r="AK42">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL42">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM42">
         <v>0.9</v>
@@ -29202,13 +29202,13 @@
         <v>0.9</v>
       </c>
       <c r="AO42">
+        <v>0.9</v>
+      </c>
+      <c r="AP42">
+        <v>0.9</v>
+      </c>
+      <c r="AQ42">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP42">
-        <v>0.9</v>
-      </c>
-      <c r="AQ42">
-        <v>0.9</v>
       </c>
       <c r="AR42">
         <v>0.9</v>
@@ -29270,7 +29270,7 @@
         <v>0.9</v>
       </c>
       <c r="W43">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X43">
         <v>0.9</v>
@@ -29291,10 +29291,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD43">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE43">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF43">
         <v>0.9000000000000001</v>
@@ -29312,10 +29312,10 @@
         <v>0.9</v>
       </c>
       <c r="AK43">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL43">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM43">
         <v>0.9</v>
@@ -29324,13 +29324,13 @@
         <v>0.9</v>
       </c>
       <c r="AO43">
+        <v>0.9</v>
+      </c>
+      <c r="AP43">
+        <v>0.9</v>
+      </c>
+      <c r="AQ43">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP43">
-        <v>0.9</v>
-      </c>
-      <c r="AQ43">
-        <v>0.9</v>
       </c>
       <c r="AR43">
         <v>0.9</v>
@@ -29392,7 +29392,7 @@
         <v>0.9</v>
       </c>
       <c r="W44">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X44">
         <v>0.9</v>
@@ -29413,10 +29413,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD44">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE44">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF44">
         <v>0.9000000000000001</v>
@@ -29434,10 +29434,10 @@
         <v>0.9</v>
       </c>
       <c r="AK44">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL44">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM44">
         <v>0.9</v>
@@ -29446,13 +29446,13 @@
         <v>0.9</v>
       </c>
       <c r="AO44">
+        <v>0.9</v>
+      </c>
+      <c r="AP44">
+        <v>0.9</v>
+      </c>
+      <c r="AQ44">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP44">
-        <v>0.9</v>
-      </c>
-      <c r="AQ44">
-        <v>0.9</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
